--- a/All Teraco Data/Operations JB1 West/Outputs/Data Analysis Results.xlsx
+++ b/All Teraco Data/Operations JB1 West/Outputs/Data Analysis Results.xlsx
@@ -45,7 +45,7 @@
     <t>Small Power and Other</t>
   </si>
   <si>
-    <t>R2 = 0.8913369314468564</t>
+    <t>R2 = 0.8590616213904407</t>
   </si>
   <si>
     <t>const</t>
@@ -57,22 +57,22 @@
     <t>CDD 18</t>
   </si>
   <si>
-    <t>R2 = 0.6038237789503584</t>
+    <t>R2 = 0.2826781255763413</t>
   </si>
   <si>
     <t>Total UPS TEM5</t>
   </si>
   <si>
-    <t>R2 = 0.8191689615073253</t>
+    <t>R2 = 0.783420878561935</t>
   </si>
   <si>
-    <t>Total UPS TEM6</t>
+    <t>R2 = 0.6027950879115175</t>
   </si>
   <si>
-    <t>R2 = 0.7304644853024782</t>
+    <t>Total UPS TEM7</t>
   </si>
   <si>
-    <t>R2 = 0.7620507289682774</t>
+    <t>R2 = 0.7040624304604152</t>
   </si>
   <si>
     <t>TEM</t>
@@ -536,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>92316.8618115625</v>
+        <v>20203.05921000001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>29794820</v>
+        <v>7445625</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>22.88953437523156</v>
+        <v>25.10324103550697</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>77.7505480599974</v>
+        <v>67.80226142839454</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -586,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.6400824352289516</v>
+        <v>7.094497536098491</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>159.3783902698512</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -620,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.3119000562747581</v>
+        <v>0.09285235826020108</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -628,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>4.564390764510407</v>
+        <v>3.08573695491011</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>332.8496581348164</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -662,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.2884220264048976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>5.858691649141732</v>
+        <v>2.872046102794481</v>
       </c>
     </row>
   </sheetData>
@@ -679,6 +679,40 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>165.1972479017419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2.869698391228241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -688,7 +722,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -696,15 +730,15 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>233.5382366331449</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>0.2102721792905463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,41 +746,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>4.893145508203986</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>186.5343210599565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>6.069259914179232</v>
+        <v>2.711532926183418</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +772,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>786.5128063549924</v>
+        <v>949.5567881230218</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -780,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>23.03898352244165</v>
+        <v>11.57647343723898</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +848,7 @@
         <v>109.6284225352082</v>
       </c>
       <c r="E2">
-        <v>287.2233970906553</v>
+        <v>285.0050639317761</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.3816834688457034</v>
+        <v>0.3846542970950538</v>
       </c>
       <c r="I2">
         <v>1.630455377278746</v>
       </c>
       <c r="J2">
-        <v>1.842183407604939</v>
+        <v>1.798126280469262</v>
       </c>
       <c r="K2">
         <v>580.8965633802745</v>
@@ -889,7 +889,7 @@
         <v>135.2084940476204</v>
       </c>
       <c r="E3">
-        <v>268.1564466787692</v>
+        <v>270.9908775719809</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.5042149675021231</v>
+        <v>0.4989411276831863</v>
       </c>
       <c r="I3">
         <v>1.649540974392558</v>
       </c>
       <c r="J3">
-        <v>1.777047275591976</v>
+        <v>1.756975186219274</v>
       </c>
       <c r="K3">
         <v>590.4219464285776</v>
@@ -930,7 +930,7 @@
         <v>21384.74729761905</v>
       </c>
       <c r="E4">
-        <v>271.6413098636153</v>
+        <v>273.2782807426639</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -939,13 +939,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>78.72420917258802</v>
+        <v>78.25264137165837</v>
       </c>
       <c r="I4">
         <v>1.639706442919475</v>
       </c>
       <c r="J4">
-        <v>-7.102559283548662</v>
+        <v>-7.126066821416256</v>
       </c>
       <c r="K4">
         <v>591.0026250000034</v>
@@ -971,7 +971,7 @@
         <v>271.8898194629</v>
       </c>
       <c r="E5">
-        <v>294.375460718497</v>
+        <v>289.3263665626841</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.9236157755788642</v>
+        <v>0.9397339851637534</v>
       </c>
       <c r="I5">
         <v>1.661933474682215</v>
       </c>
       <c r="J5">
-        <v>1.778155098556331</v>
+        <v>1.7289271498201</v>
       </c>
       <c r="K5">
         <v>585.2507321428496</v>
@@ -1012,7 +1012,7 @@
         <v>246.1343986068885</v>
       </c>
       <c r="E6">
-        <v>208.8675294082244</v>
+        <v>231.3470359663771</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1021,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.178423469192415</v>
+        <v>1.063918530785328</v>
       </c>
       <c r="I6">
         <v>1.627674989385667</v>
       </c>
       <c r="J6">
-        <v>1.599968928170657</v>
+        <v>1.640697729465369</v>
       </c>
       <c r="K6">
         <v>586.7087678571476</v>
@@ -1053,7 +1053,7 @@
         <v>237.8346307497538</v>
       </c>
       <c r="E7">
-        <v>216.8900214634413</v>
+        <v>236.6083881921109</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.096567878711022</v>
+        <v>1.005182582777443</v>
       </c>
       <c r="I7">
         <v>1.600643828857363</v>
       </c>
       <c r="J7">
-        <v>1.612976351065534</v>
+        <v>1.645602865157139</v>
       </c>
       <c r="K7">
         <v>588.0834345238039</v>
@@ -1094,7 +1094,7 @@
         <v>271.3745743528651</v>
       </c>
       <c r="E8">
-        <v>256.6689121048683</v>
+        <v>263.5672626251157</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.057294286742402</v>
+        <v>1.029621705100964</v>
       </c>
       <c r="I8">
         <v>1.640151168630854</v>
       </c>
       <c r="J8">
-        <v>1.693883399055898</v>
+        <v>1.685075409975778</v>
       </c>
       <c r="K8">
         <v>587.5196964285735</v>
@@ -1135,7 +1135,7 @@
         <v>284.3962018768459</v>
       </c>
       <c r="E9">
-        <v>278.6088217499466</v>
+        <v>278.2769628373961</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.020772422389746</v>
+        <v>1.021989743516877</v>
       </c>
       <c r="I9">
         <v>1.63467942927441</v>
       </c>
       <c r="J9">
-        <v>1.718240714970875</v>
+        <v>1.687721242600905</v>
       </c>
       <c r="K9">
         <v>588.5593214285715</v>
@@ -1176,7 +1176,7 @@
         <v>244.664188408631</v>
       </c>
       <c r="E10">
-        <v>237.1646926357187</v>
+        <v>250.0308425134815</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1185,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.031621468143369</v>
+        <v>0.9785360315915381</v>
       </c>
       <c r="I10">
         <v>1.604125269309702</v>
       </c>
       <c r="J10">
-        <v>1.634171862026393</v>
+        <v>1.646079274441423</v>
       </c>
       <c r="K10">
         <v>590.4913630952416</v>
@@ -1217,7 +1217,7 @@
         <v>265.182635496243</v>
       </c>
       <c r="E11">
-        <v>249.4643259355298</v>
+        <v>258.1947644477472</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.063008245775291</v>
+        <v>1.027064340609083</v>
       </c>
       <c r="I11">
         <v>1.623809611880125</v>
       </c>
       <c r="J11">
-        <v>1.64478855106587</v>
+        <v>1.644822077707075</v>
       </c>
       <c r="K11">
         <v>591.7725892857138</v>
@@ -1258,7 +1258,7 @@
         <v>287.8593168370259</v>
       </c>
       <c r="E12">
-        <v>296.8252814173274</v>
+        <v>290.13482651254</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1267,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.969793797423557</v>
+        <v>0.9921570612433328</v>
       </c>
       <c r="I12">
         <v>1.657980874301686</v>
       </c>
       <c r="J12">
-        <v>1.734936492832614</v>
+        <v>1.688593776679817</v>
       </c>
       <c r="K12">
         <v>592.434505952378</v>
@@ -1299,7 +1299,7 @@
         <v>265.5780483769319</v>
       </c>
       <c r="E13">
-        <v>240.9590850724938</v>
+        <v>252.3682471347992</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.102170720381974</v>
+        <v>1.052343356948059</v>
       </c>
       <c r="I13">
         <v>1.632826007778472</v>
       </c>
       <c r="J13">
-        <v>1.62798512763677</v>
+        <v>1.636570418025435</v>
       </c>
       <c r="K13">
         <v>592.4215833333299</v>
@@ -1340,7 +1340,7 @@
         <v>229.6215189165059</v>
       </c>
       <c r="E14">
-        <v>208.9404218594464</v>
+        <v>230.6728275142726</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1349,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1.098980833258639</v>
+        <v>0.9954424254946036</v>
       </c>
       <c r="I14">
         <v>1.584854299015789</v>
       </c>
       <c r="J14">
-        <v>1.566203012337188</v>
+        <v>1.606273837613394</v>
       </c>
       <c r="K14">
         <v>592.839684523814</v>
@@ -1381,7 +1381,7 @@
         <v>252.6409622181506</v>
       </c>
       <c r="E15">
-        <v>224.3249621234805</v>
+        <v>241.0297563372276</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.126227593338825</v>
+        <v>1.048173329539767</v>
       </c>
       <c r="I15">
         <v>1.60770588006845</v>
       </c>
       <c r="J15">
-        <v>1.597973195617145</v>
+        <v>1.623014085530205</v>
       </c>
       <c r="K15">
         <v>593.2102083333358</v>
@@ -1422,7 +1422,7 @@
         <v>264.1080825277604</v>
       </c>
       <c r="E16">
-        <v>239.2097358696308</v>
+        <v>251.0909111701874</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.104085841521514</v>
+        <v>1.051842463340898</v>
       </c>
       <c r="I16">
         <v>1.625766156821475</v>
       </c>
       <c r="J16">
-        <v>1.625523368041201</v>
+        <v>1.636004451897686</v>
       </c>
       <c r="K16">
         <v>593.2240476190511</v>
@@ -1463,7 +1463,7 @@
         <v>266.5720540278458</v>
       </c>
       <c r="E17">
-        <v>250.9847726246589</v>
+        <v>259.0153988853583</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1472,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.062104490404672</v>
+        <v>1.029174540104591</v>
       </c>
       <c r="I17">
         <v>1.618511144185805</v>
       </c>
       <c r="J17">
-        <v>1.646008332446574</v>
+        <v>1.645092844596882</v>
       </c>
       <c r="K17">
         <v>593.5289107142793</v>
@@ -1504,7 +1504,7 @@
         <v>231.0796050752923</v>
       </c>
       <c r="E18">
-        <v>205.538422658451</v>
+        <v>228.1531104275914</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1513,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.124264758318613</v>
+        <v>1.012826889110634</v>
       </c>
       <c r="I18">
         <v>1.578775846212964</v>
       </c>
       <c r="J18">
-        <v>1.562850805803545</v>
+        <v>1.60644599713876</v>
       </c>
       <c r="K18">
         <v>594.702380952381</v>
@@ -1545,7 +1545,7 @@
         <v>229.9598108846417</v>
       </c>
       <c r="E19">
-        <v>215.5178864225201</v>
+        <v>235.047595565692</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1554,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.067010328942297</v>
+        <v>0.9783542364311132</v>
       </c>
       <c r="I19">
         <v>1.576359870485145</v>
       </c>
       <c r="J19">
-        <v>1.582390317453739</v>
+        <v>1.615794736053819</v>
       </c>
       <c r="K19">
         <v>593.4489642857142</v>
@@ -1586,7 +1586,7 @@
         <v>207.4910311227376</v>
       </c>
       <c r="E20">
-        <v>193.7535394551821</v>
+        <v>220.2092445572566</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.07090188755356</v>
+        <v>0.942244870509003</v>
       </c>
       <c r="I20">
         <v>1.55509345412709</v>
       </c>
       <c r="J20">
-        <v>1.542255928612898</v>
+        <v>1.596924899410509</v>
       </c>
       <c r="K20">
         <v>594.5053214285733</v>
@@ -1627,7 +1627,7 @@
         <v>234.5476157180577</v>
       </c>
       <c r="E21">
-        <v>204.2556660729031</v>
+        <v>227.2469907859784</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1636,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.148304084912595</v>
+        <v>1.032126387710696</v>
       </c>
       <c r="I21">
         <v>1.607952689537264</v>
       </c>
       <c r="J21">
-        <v>1.559042998609737</v>
+        <v>1.603629385705111</v>
       </c>
       <c r="K21">
         <v>595.0321726190492</v>
@@ -1668,7 +1668,7 @@
         <v>196.2755427260307</v>
       </c>
       <c r="E22">
-        <v>192.4030016976229</v>
+        <v>219.0814722847114</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1677,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.020127238110837</v>
+        <v>0.8959020618181582</v>
       </c>
       <c r="I22">
         <v>1.533161701999339</v>
       </c>
       <c r="J22">
-        <v>1.534063413052274</v>
+        <v>1.590380948838082</v>
       </c>
       <c r="K22">
         <v>596.3251130952378</v>
@@ -1709,7 +1709,7 @@
         <v>206.839364154597</v>
       </c>
       <c r="E23">
-        <v>189.187681514977</v>
+        <v>216.8917866228884</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.093302494635321</v>
+        <v>0.9536523598942468</v>
       </c>
       <c r="I23">
         <v>1.554797450300363</v>
       </c>
       <c r="J23">
-        <v>1.530921628444432</v>
+        <v>1.590358533131832</v>
       </c>
       <c r="K23">
         <v>596.4605476190447</v>
@@ -1750,22 +1750,22 @@
         <v>165.2720082737284</v>
       </c>
       <c r="E24">
-        <v>186.3395284100922</v>
+        <v>214.8751379074444</v>
       </c>
       <c r="F24">
-        <v>-21.06752013636387</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>-21.06752013636387</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0.8869401446052879</v>
+        <v>0.7691537042545978</v>
       </c>
       <c r="I24">
         <v>1.436351797638831</v>
       </c>
       <c r="J24">
-        <v>1.510225099917864</v>
+        <v>1.572461598668177</v>
       </c>
       <c r="K24">
         <v>597.23310714286</v>
@@ -1791,22 +1791,22 @@
         <v>181.748234464216</v>
       </c>
       <c r="E25">
-        <v>187.6262010067447</v>
+        <v>215.4781561242841</v>
       </c>
       <c r="F25">
-        <v>-5.877966542528725</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>-26.94548667889259</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.968671931153595</v>
+        <v>0.8434647749602362</v>
       </c>
       <c r="I25">
         <v>1.493740588445003</v>
       </c>
       <c r="J25">
-        <v>1.520629122174469</v>
+        <v>1.582138539730656</v>
       </c>
       <c r="K25">
         <v>599.4942678571401</v>
@@ -1832,22 +1832,22 @@
         <v>194.6218744958973</v>
       </c>
       <c r="E26">
-        <v>188.9561220334139</v>
+        <v>216.2975794570347</v>
       </c>
       <c r="F26">
-        <v>5.665752462483368</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>-21.27973421640922</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1.029984487411747</v>
+        <v>0.8997875749902088</v>
       </c>
       <c r="I26">
         <v>1.540278310997046</v>
       </c>
       <c r="J26">
-        <v>1.524986694723918</v>
+        <v>1.585310891576881</v>
       </c>
       <c r="K26">
         <v>600.1693511904783</v>
@@ -1873,22 +1873,22 @@
         <v>189.267429932259</v>
       </c>
       <c r="E27">
-        <v>189.2944190535393</v>
+        <v>216.5329489694263</v>
       </c>
       <c r="F27">
-        <v>-0.02698912128033726</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>-21.30672333768956</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0.9998574225198223</v>
+        <v>0.8740814311773997</v>
       </c>
       <c r="I27">
         <v>1.527102612755731</v>
       </c>
       <c r="J27">
-        <v>1.526699734481327</v>
+        <v>1.586427086254488</v>
       </c>
       <c r="K27">
         <v>600.1128690476207</v>
@@ -1914,22 +1914,22 @@
         <v>214.6006858846439</v>
       </c>
       <c r="E28">
-        <v>193.7738979933936</v>
+        <v>219.4659444587924</v>
       </c>
       <c r="F28">
-        <v>20.82678789125029</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>-0.4799354464392707</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>1.107479841748141</v>
+        <v>0.9778313733998851</v>
       </c>
       <c r="I28">
         <v>1.584452821548302</v>
       </c>
       <c r="J28">
-        <v>1.535166725826816</v>
+        <v>1.590518358802346</v>
       </c>
       <c r="K28">
         <v>600.9207678571388</v>
@@ -1955,22 +1955,22 @@
         <v>181.8421188449886</v>
       </c>
       <c r="E29">
-        <v>189.9834033374501</v>
+        <v>216.9796224539733</v>
       </c>
       <c r="F29">
-        <v>-8.141284492461438</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>-8.621219938900708</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0.9571473910381486</v>
+        <v>0.8380608132155904</v>
       </c>
       <c r="I29">
         <v>1.511543376216454</v>
       </c>
       <c r="J29">
-        <v>1.524499100613619</v>
+        <v>1.583020279596503</v>
       </c>
       <c r="K29">
         <v>600.2748214285709</v>
@@ -1996,22 +1996,22 @@
         <v>165.3451323132142</v>
       </c>
       <c r="E30">
-        <v>187.0892887396284</v>
+        <v>215.0746984788987</v>
       </c>
       <c r="F30">
-        <v>-21.74415642641429</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>-30.365376365315</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0.8837765829733012</v>
+        <v>0.7687800261146777</v>
       </c>
       <c r="I30">
         <v>1.447453075097497</v>
       </c>
       <c r="J30">
-        <v>1.513007789353551</v>
+        <v>1.574194210558407</v>
       </c>
       <c r="K30">
         <v>599.8373035714308</v>
@@ -2037,22 +2037,22 @@
         <v>163.0073763608289</v>
       </c>
       <c r="E31">
-        <v>186.2714310956364</v>
+        <v>214.8312230147619</v>
       </c>
       <c r="F31">
-        <v>-23.26405473480747</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>-53.62943110012247</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.8751066945802165</v>
+        <v>0.7587694845903665</v>
       </c>
       <c r="I31">
         <v>1.432074944501285</v>
       </c>
       <c r="J31">
-        <v>1.501176844171143</v>
+        <v>1.561313611555221</v>
       </c>
       <c r="K31">
         <v>597.215124999999</v>
@@ -2078,22 +2078,22 @@
         <v>180.2812037417843</v>
       </c>
       <c r="E32">
-        <v>189.6104071378229</v>
+        <v>216.3690079527087</v>
       </c>
       <c r="F32">
-        <v>-9.32920339603865</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>-62.95863449616112</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.9507980414320956</v>
+        <v>0.8332117683933177</v>
       </c>
       <c r="I32">
         <v>1.497806385546245</v>
       </c>
       <c r="J32">
-        <v>1.510448417162488</v>
+        <v>1.568696418954906</v>
       </c>
       <c r="K32">
         <v>603.3123869047655</v>
@@ -2119,22 +2119,22 @@
         <v>205.8888121466319</v>
       </c>
       <c r="E33">
-        <v>199.2218099908531</v>
+        <v>222.4220356879923</v>
       </c>
       <c r="F33">
-        <v>6.667002155778789</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>-56.29163234038234</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1.033465222287082</v>
+        <v>0.9256673310707719</v>
       </c>
       <c r="I33">
         <v>1.576456288197636</v>
       </c>
       <c r="J33">
-        <v>1.530794171826756</v>
+        <v>1.58116452275628</v>
       </c>
       <c r="K33">
         <v>607.0809999999944</v>
@@ -2160,22 +2160,22 @@
         <v>180.1972096941678</v>
       </c>
       <c r="E34">
-        <v>195.9162667024057</v>
+        <v>220.1602617802916</v>
       </c>
       <c r="F34">
-        <v>-15.71905700823791</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>-72.01068934862025</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0.9197664529198336</v>
+        <v>0.8184819923315461</v>
       </c>
       <c r="I34">
         <v>1.493165731010845</v>
       </c>
       <c r="J34">
-        <v>1.51984496329262</v>
+        <v>1.573310951893503</v>
       </c>
       <c r="K34">
         <v>607.310440476191</v>
@@ -2201,22 +2201,22 @@
         <v>210.8701160195272</v>
       </c>
       <c r="E35">
-        <v>201.7968380472346</v>
+        <v>224.056191900836</v>
       </c>
       <c r="F35">
-        <v>9.07327797229263</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>-62.93741137632762</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1.044962438758177</v>
+        <v>0.9411483531455149</v>
       </c>
       <c r="I35">
         <v>1.566231126569151</v>
       </c>
       <c r="J35">
-        <v>1.53235678933468</v>
+        <v>1.580398725711553</v>
       </c>
       <c r="K35">
         <v>607.9850238095304</v>
@@ -2242,22 +2242,22 @@
         <v>219.0678228455086</v>
       </c>
       <c r="E36">
-        <v>217.9264690400449</v>
+        <v>234.4694368484835</v>
       </c>
       <c r="F36">
-        <v>1.141353805463666</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>-61.79605757086395</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1.005237334457312</v>
+        <v>0.9343129142544594</v>
       </c>
       <c r="I36">
         <v>1.565487255216931</v>
       </c>
       <c r="J36">
-        <v>1.553147747946411</v>
+        <v>1.587563738489962</v>
       </c>
       <c r="K36">
         <v>612.1468630952295</v>
@@ -2283,22 +2283,22 @@
         <v>240.8876934004892</v>
       </c>
       <c r="E37">
-        <v>228.3958407374672</v>
+        <v>240.6123844190717</v>
       </c>
       <c r="F37">
-        <v>12.49185266302206</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>-49.30420490784189</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>1.054693871056001</v>
+        <v>1.001144201210101</v>
       </c>
       <c r="I37">
         <v>1.617896971742805</v>
       </c>
       <c r="J37">
-        <v>1.570272825698438</v>
+        <v>1.597304383684783</v>
       </c>
       <c r="K37">
         <v>620.0686964285782</v>
@@ -2324,22 +2324,22 @@
         <v>223.4684239798835</v>
       </c>
       <c r="E38">
-        <v>228.6068223727041</v>
+        <v>239.6781015610337</v>
       </c>
       <c r="F38">
-        <v>-5.138398392820591</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>-54.44260330066248</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0.9775229875491497</v>
+        <v>0.9323689670621728</v>
       </c>
       <c r="I38">
         <v>1.591508463478796</v>
       </c>
       <c r="J38">
-        <v>1.563539123721077</v>
+        <v>1.592786677162983</v>
       </c>
       <c r="K38">
         <v>629.1946130952343</v>
@@ -2365,22 +2365,22 @@
         <v>251.7705994243844</v>
       </c>
       <c r="E39">
-        <v>254.6254504438315</v>
+        <v>256.970207025794</v>
       </c>
       <c r="F39">
-        <v>-2.85485101944704</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>-57.29745432010952</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0.9887880374311726</v>
+        <v>0.9797657181289983</v>
       </c>
       <c r="I39">
         <v>1.620212835005963</v>
       </c>
       <c r="J39">
-        <v>1.607078052913528</v>
+        <v>1.613635091827801</v>
       </c>
       <c r="K39">
         <v>631.7171666666621</v>
@@ -2406,22 +2406,22 @@
         <v>262.3632886385811</v>
       </c>
       <c r="E40">
-        <v>253.770640525947</v>
+        <v>256.4361340011868</v>
       </c>
       <c r="F40">
-        <v>8.592648112634095</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>-48.70480620747543</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1.033859898429643</v>
+        <v>1.02311357040411</v>
       </c>
       <c r="I40">
         <v>1.637046408519591</v>
       </c>
       <c r="J40">
-        <v>1.610421998053636</v>
+        <v>1.61763740473441</v>
       </c>
       <c r="K40">
         <v>631.3458511904824</v>
@@ -2447,22 +2447,22 @@
         <v>251.9225608846394</v>
       </c>
       <c r="E41">
-        <v>260.1735809628382</v>
+        <v>260.5862541770521</v>
       </c>
       <c r="F41">
-        <v>-8.251020078198735</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>-56.95582628567416</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0.968286479942876</v>
+        <v>0.96675306869208</v>
       </c>
       <c r="I41">
         <v>1.611093541154507</v>
       </c>
       <c r="J41">
-        <v>1.616965165481657</v>
+        <v>1.618871294885202</v>
       </c>
       <c r="K41">
         <v>632.8589940476176</v>
@@ -2488,22 +2488,22 @@
         <v>246.7353005433411</v>
       </c>
       <c r="E42">
-        <v>242.1250237257018</v>
+        <v>248.3096389161322</v>
       </c>
       <c r="F42">
-        <v>4.610276817639317</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>-52.34554946803485</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1.019040893612311</v>
+        <v>0.9936597774469689</v>
       </c>
       <c r="I42">
         <v>1.593152956465952</v>
       </c>
       <c r="J42">
-        <v>1.58505151679362</v>
+        <v>1.603190963017028</v>
       </c>
       <c r="K42">
         <v>633.4942559523873</v>
@@ -2529,22 +2529,22 @@
         <v>286.9767410195366</v>
       </c>
       <c r="E43">
-        <v>290.860600211704</v>
+        <v>281.035146685331</v>
       </c>
       <c r="F43">
-        <v>-3.883859192167336</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>-56.22940866020218</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0.9866470082598315</v>
+        <v>1.021141819463807</v>
       </c>
       <c r="I43">
         <v>1.634257502936944</v>
       </c>
       <c r="J43">
-        <v>1.661964465943373</v>
+        <v>1.637397798812191</v>
       </c>
       <c r="K43">
         <v>635.3752678571424</v>
@@ -2570,22 +2570,22 @@
         <v>250.5174493528625</v>
       </c>
       <c r="E44">
-        <v>237.3287194230409</v>
+        <v>244.3674672967575</v>
       </c>
       <c r="F44">
-        <v>13.18872992982162</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>-43.04067873038056</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1.055571571623882</v>
+        <v>1.025166942736434</v>
       </c>
       <c r="I44">
         <v>1.574362506979673</v>
       </c>
       <c r="J44">
-        <v>1.566479585953359</v>
+        <v>1.590348319032341</v>
       </c>
       <c r="K44">
         <v>639.4231785714205</v>
@@ -2611,22 +2611,22 @@
         <v>239.4993942179773</v>
       </c>
       <c r="E45">
-        <v>229.9289809967255</v>
+        <v>239.1732963245513</v>
       </c>
       <c r="F45">
-        <v>9.570413221251727</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>-33.47026550912884</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1.041623344650877</v>
+        <v>1.001363437718329</v>
       </c>
       <c r="I45">
         <v>1.565328450188139</v>
       </c>
       <c r="J45">
-        <v>1.552204923461107</v>
+        <v>1.582957201347841</v>
       </c>
       <c r="K45">
         <v>641.0468988095278</v>
@@ -2652,22 +2652,22 @@
         <v>290.3269402735556</v>
       </c>
       <c r="E46">
-        <v>302.6979782215337</v>
+        <v>288.4354464056001</v>
       </c>
       <c r="F46">
-        <v>-12.37103794797804</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>-45.84130345710687</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0.9591307546199594</v>
+        <v>1.006557771908851</v>
       </c>
       <c r="I46">
         <v>1.649097685745922</v>
       </c>
       <c r="J46">
-        <v>1.677908955317066</v>
+        <v>1.644517696299107</v>
       </c>
       <c r="K46">
         <v>640.4793095238108</v>
@@ -2693,22 +2693,22 @@
         <v>279.8206495674094</v>
       </c>
       <c r="E47">
-        <v>281.6023327991523</v>
+        <v>274.0253955716131</v>
       </c>
       <c r="F47">
-        <v>-1.781683231742875</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>-47.62298668884975</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0.9936730523002676</v>
+        <v>1.021148601879426</v>
       </c>
       <c r="I47">
         <v>1.628441658711434</v>
       </c>
       <c r="J47">
-        <v>1.639410385318714</v>
+        <v>1.624930982670052</v>
       </c>
       <c r="K47">
         <v>641.7371190476142</v>
@@ -2734,22 +2734,22 @@
         <v>273.1344177260263</v>
       </c>
       <c r="E48">
-        <v>288.4362490856816</v>
+        <v>278.6913463898802</v>
       </c>
       <c r="F48">
-        <v>-15.3018313596553</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>-62.92481804850505</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0.9469490003140701</v>
+        <v>0.9800606343331524</v>
       </c>
       <c r="I48">
         <v>1.628550463132156</v>
       </c>
       <c r="J48">
-        <v>1.653957171577679</v>
+        <v>1.633388029729878</v>
       </c>
       <c r="K48">
         <v>641.3480654761938</v>
@@ -2775,22 +2775,22 @@
         <v>240.1644446624809</v>
       </c>
       <c r="E49">
-        <v>225.9552879197468</v>
+        <v>236.228459912013</v>
       </c>
       <c r="F49">
-        <v>14.20915674273414</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>-48.71566130577091</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1.062884816166731</v>
+        <v>1.016661772048694</v>
       </c>
       <c r="I49">
         <v>1.570723039668468</v>
       </c>
       <c r="J49">
-        <v>1.543560037094981</v>
+        <v>1.578146426535229</v>
       </c>
       <c r="K49">
         <v>643.2369345238078</v>
@@ -2816,22 +2816,22 @@
         <v>270.2162530850619</v>
       </c>
       <c r="E50">
-        <v>284.4948698352397</v>
+        <v>275.6379178478343</v>
       </c>
       <c r="F50">
-        <v>-14.27861675017783</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>-62.99427805594874</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0.9498106353958261</v>
+        <v>0.9803304828120005</v>
       </c>
       <c r="I50">
         <v>0.1873026997491127</v>
       </c>
       <c r="J50">
-        <v>0.1896445440704983</v>
+        <v>0.1877810225769665</v>
       </c>
       <c r="K50">
         <v>644.6434464285683</v>
@@ -2857,22 +2857,22 @@
         <v>278.5881726190426</v>
       </c>
       <c r="E51">
-        <v>256.8660089665412</v>
+        <v>257.0276568604909</v>
       </c>
       <c r="F51">
-        <v>21.72216365250137</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>-41.27211440344738</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>1.084566127452585</v>
+        <v>1.083884030309836</v>
       </c>
       <c r="I51">
         <v>1.47109006975278</v>
       </c>
       <c r="J51">
-        <v>1.440832300225289</v>
+        <v>1.447874294946918</v>
       </c>
       <c r="K51">
         <v>644.0662500000049</v>
@@ -2898,22 +2898,22 @@
         <v>245.2735059523866</v>
       </c>
       <c r="E52">
-        <v>233.3530707781055</v>
+        <v>241.1013346191603</v>
       </c>
       <c r="F52">
-        <v>11.92043517428112</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>-29.35167922916625</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>1.051083258234113</v>
+        <v>1.01730463806771</v>
       </c>
       <c r="I52">
         <v>1.418306737021328</v>
       </c>
       <c r="J52">
-        <v>1.40337607084799</v>
+        <v>1.429046405964002</v>
       </c>
       <c r="K52">
         <v>644.3247142857207</v>
@@ -2939,22 +2939,22 @@
         <v>269.4706666666704</v>
       </c>
       <c r="E53">
-        <v>242.26878843408</v>
+        <v>246.9503413041245</v>
       </c>
       <c r="F53">
-        <v>27.20187823259045</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>-2.149800996575806</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>1.112279746839911</v>
+        <v>1.091193740586135</v>
       </c>
       <c r="I53">
         <v>1.448484773894009</v>
       </c>
       <c r="J53">
-        <v>1.416260524023409</v>
+        <v>1.435274694264375</v>
       </c>
       <c r="K53">
         <v>645.8367202380849</v>
@@ -2980,22 +2980,22 @@
         <v>279.7643869047585</v>
       </c>
       <c r="E54">
-        <v>277.5672244232672</v>
+        <v>270.8803323086761</v>
       </c>
       <c r="F54">
-        <v>2.197162481491262</v>
+        <v>8.884054596082365</v>
       </c>
       <c r="G54">
-        <v>0.04736148491545578</v>
+        <v>8.884054596082365</v>
       </c>
       <c r="H54">
-        <v>1.007915785035703</v>
+        <v>1.032796971712065</v>
       </c>
       <c r="I54">
         <v>1.469896962883627</v>
       </c>
       <c r="J54">
-        <v>1.476402431964491</v>
+        <v>1.467394126512646</v>
       </c>
       <c r="K54">
         <v>645.272059523811</v>
@@ -3021,22 +3021,22 @@
         <v>279.9937321428553</v>
       </c>
       <c r="E55">
-        <v>273.6570414406915</v>
+        <v>268.0181344394394</v>
       </c>
       <c r="F55">
-        <v>6.336690702163821</v>
+        <v>11.97559770341593</v>
       </c>
       <c r="G55">
-        <v>6.384052187079277</v>
+        <v>20.85965229949829</v>
       </c>
       <c r="H55">
-        <v>1.023155591644212</v>
+        <v>1.044682042610523</v>
       </c>
       <c r="I55">
         <v>1.471019616096082</v>
       </c>
       <c r="J55">
-        <v>1.465337355541965</v>
+        <v>1.459898783280458</v>
       </c>
       <c r="K55">
         <v>647.1256488095304</v>
@@ -3062,22 +3062,22 @@
         <v>287.8739523809525</v>
       </c>
       <c r="E56">
-        <v>258.8415129292764</v>
+        <v>257.5705336522167</v>
       </c>
       <c r="F56">
-        <v>29.03243945167611</v>
+        <v>30.30341872873583</v>
       </c>
       <c r="G56">
-        <v>35.41649163875539</v>
+        <v>51.16307102823413</v>
       </c>
       <c r="H56">
-        <v>1.112162995506863</v>
+        <v>1.117650952921707</v>
       </c>
       <c r="I56">
         <v>1.472322448399733</v>
       </c>
       <c r="J56">
-        <v>1.439062788952305</v>
+        <v>1.446178178727229</v>
       </c>
       <c r="K56">
         <v>650.7832976190396</v>
@@ -3103,22 +3103,22 @@
         <v>272.3795178571406</v>
       </c>
       <c r="E57">
-        <v>246.1073557669657</v>
+        <v>248.9688754291844</v>
       </c>
       <c r="F57">
-        <v>26.27216209017487</v>
+        <v>23.41064242795616</v>
       </c>
       <c r="G57">
-        <v>61.68865372893026</v>
+        <v>74.57371345619029</v>
       </c>
       <c r="H57">
-        <v>1.106750820219496</v>
+        <v>1.094030397926648</v>
       </c>
       <c r="I57">
         <v>1.456163578559907</v>
       </c>
       <c r="J57">
-        <v>1.41866497295174</v>
+        <v>1.435728310487115</v>
       </c>
       <c r="K57">
         <v>650.7221607142905</v>
@@ -3144,22 +3144,22 @@
         <v>287.3494940476237</v>
       </c>
       <c r="E58">
-        <v>269.2052673118029</v>
+        <v>264.3265510237936</v>
       </c>
       <c r="F58">
-        <v>18.14422673582078</v>
+        <v>23.02294302383012</v>
       </c>
       <c r="G58">
-        <v>79.83288046475104</v>
+        <v>97.59665648002041</v>
       </c>
       <c r="H58">
-        <v>1.067399226311592</v>
+        <v>1.087100379945402</v>
       </c>
       <c r="I58">
         <v>1.473072588488984</v>
       </c>
       <c r="J58">
-        <v>1.451173033101619</v>
+        <v>1.450674184366834</v>
       </c>
       <c r="K58">
         <v>652.904833333334</v>
@@ -3185,22 +3185,22 @@
         <v>284.2050059523788</v>
       </c>
       <c r="E59">
-        <v>274.6180564622233</v>
+        <v>268.0102398026929</v>
       </c>
       <c r="F59">
-        <v>9.586949490155519</v>
+        <v>16.1947661496859</v>
       </c>
       <c r="G59">
-        <v>89.41982995490656</v>
+        <v>113.7914226297063</v>
       </c>
       <c r="H59">
-        <v>1.034910120673272</v>
+        <v>1.060425923134908</v>
       </c>
       <c r="I59">
         <v>1.472326702165351</v>
       </c>
       <c r="J59">
-        <v>1.458104521196165</v>
+        <v>1.453342332792212</v>
       </c>
       <c r="K59">
         <v>652.6981011904732</v>
@@ -3226,22 +3226,22 @@
         <v>292.5767559523838</v>
       </c>
       <c r="E60">
-        <v>279.9720964989876</v>
+        <v>271.4872999435508</v>
       </c>
       <c r="F60">
-        <v>12.60465945339621</v>
+        <v>21.08945600883305</v>
       </c>
       <c r="G60">
-        <v>102.0244894083028</v>
+        <v>134.8808786385394</v>
       </c>
       <c r="H60">
-        <v>1.045021127501689</v>
+        <v>1.077681188082161</v>
       </c>
       <c r="I60">
         <v>1.489925053143031</v>
       </c>
       <c r="J60">
-        <v>1.468534926406103</v>
+        <v>1.459910008462773</v>
       </c>
       <c r="K60">
         <v>653.9057976190511</v>
@@ -3267,22 +3267,22 @@
         <v>289.5383928571384</v>
       </c>
       <c r="E61">
-        <v>282.4260574143896</v>
+        <v>273.1923192786019</v>
       </c>
       <c r="F61">
-        <v>7.112335442748815</v>
+        <v>16.34607357853656</v>
       </c>
       <c r="G61">
-        <v>109.1368248510516</v>
+        <v>151.2269522170759</v>
       </c>
       <c r="H61">
-        <v>1.025183000137672</v>
+        <v>1.059833576660209</v>
       </c>
       <c r="I61">
         <v>1.483589215446436</v>
       </c>
       <c r="J61">
-        <v>1.468810925050417</v>
+        <v>1.458221003372777</v>
       </c>
       <c r="K61">
         <v>653.5157380952345</v>
@@ -3308,22 +3308,22 @@
         <v>293.4364583333289</v>
       </c>
       <c r="E62">
-        <v>284.7768999814134</v>
+        <v>274.6929202423148</v>
       </c>
       <c r="F62">
-        <v>8.659558351915564</v>
+        <v>18.7435380910141</v>
       </c>
       <c r="G62">
-        <v>117.7963832029671</v>
+        <v>169.97049030809</v>
       </c>
       <c r="H62">
-        <v>1.030408219039117</v>
+        <v>1.068234514651779</v>
       </c>
       <c r="I62">
         <v>1.482187563629335</v>
       </c>
       <c r="J62">
-        <v>1.469918019883661</v>
+        <v>1.457751732387844</v>
       </c>
       <c r="K62">
         <v>654.2671904761921</v>
@@ -3349,22 +3349,22 @@
         <v>285.1927142857264</v>
       </c>
       <c r="E63">
-        <v>251.9609151468466</v>
+        <v>252.1238501729196</v>
       </c>
       <c r="F63">
-        <v>33.23179913887978</v>
+        <v>33.06886411280675</v>
       </c>
       <c r="G63">
-        <v>151.0281823418469</v>
+        <v>203.0393544208968</v>
       </c>
       <c r="H63">
-        <v>1.131892675177465</v>
+        <v>1.131161189590459</v>
       </c>
       <c r="I63">
         <v>1.473786175248547</v>
       </c>
       <c r="J63">
-        <v>1.418329441282336</v>
+        <v>1.432190698183436</v>
       </c>
       <c r="K63">
         <v>657.5209404761858</v>
@@ -3390,22 +3390,22 @@
         <v>254.1043999997899</v>
       </c>
       <c r="E64">
-        <v>204.516406965026</v>
+        <v>220.2627354553397</v>
       </c>
       <c r="F64">
-        <v>49.58799303476394</v>
+        <v>33.84166454445017</v>
       </c>
       <c r="G64">
-        <v>200.6161753766109</v>
+        <v>236.881018965347</v>
       </c>
       <c r="H64">
-        <v>1.242464620666077</v>
+        <v>1.153642260341908</v>
       </c>
       <c r="I64">
         <v>1.445091805202321</v>
       </c>
       <c r="J64">
-        <v>1.347523544612386</v>
+        <v>1.397778113749093</v>
       </c>
       <c r="K64">
         <v>655.7113500000909</v>
@@ -3428,7 +3428,7 @@
         <v>357.0151549295824</v>
       </c>
       <c r="E65">
-        <v>403.2176517176608</v>
+        <v>399.5741658328375</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3437,13 +3437,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0.8854154906382172</v>
+        <v>0.8934890827725341</v>
       </c>
       <c r="I65">
         <v>1.630455377278746</v>
       </c>
       <c r="J65">
-        <v>1.842183407604939</v>
+        <v>1.798126280469262</v>
       </c>
       <c r="K65">
         <v>926.0950704225352</v>
@@ -3469,7 +3469,7 @@
         <v>374.1400357142778</v>
       </c>
       <c r="E66">
-        <v>380.0196205829264</v>
+        <v>385.7072732849965</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0.9845282070972292</v>
+        <v>0.9700103203338567</v>
       </c>
       <c r="I66">
         <v>1.649540974392558</v>
       </c>
       <c r="J66">
-        <v>1.777047275591976</v>
+        <v>1.756975186219274</v>
       </c>
       <c r="K66">
         <v>943.7395833333334</v>
@@ -3510,7 +3510,7 @@
         <v>369.9505000000021</v>
       </c>
       <c r="E67">
-        <v>384.4323063727045</v>
+        <v>387.7860876070191</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3519,13 +3519,13 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0.9623293720828386</v>
+        <v>0.9540066336131907</v>
       </c>
       <c r="I67">
         <v>1.639706442919475</v>
       </c>
       <c r="J67">
-        <v>-7.102559283548662</v>
+        <v>-7.126066821416256</v>
       </c>
       <c r="K67">
         <v>944.3363095238095</v>
@@ -3551,7 +3551,7 @@
         <v>393.3105773809532</v>
       </c>
       <c r="E68">
-        <v>416.5053047903351</v>
+        <v>403.2199163070362</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0.9443110876557553</v>
+        <v>0.975424480474974</v>
       </c>
       <c r="I68">
         <v>1.661933474682215</v>
       </c>
       <c r="J68">
-        <v>1.778155098556331</v>
+        <v>1.7289271498201</v>
       </c>
       <c r="K68">
         <v>946.3802083333334</v>
@@ -3592,7 +3592,7 @@
         <v>361.4480238095247</v>
       </c>
       <c r="E69">
-        <v>307.0934682642691</v>
+        <v>349.1297147044068</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3601,13 +3601,13 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>1.176996781639396</v>
+        <v>1.035282900842592</v>
       </c>
       <c r="I69">
         <v>1.627674989385667</v>
       </c>
       <c r="J69">
-        <v>1.599968928170657</v>
+        <v>1.640697729465369</v>
       </c>
       <c r="K69">
         <v>949.59375</v>
@@ -3633,7 +3633,7 @@
         <v>340.7603988095264</v>
       </c>
       <c r="E70">
-        <v>318.5517359473297</v>
+        <v>353.9079104528059</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1.069717601117919</v>
+        <v>0.9628504725241718</v>
       </c>
       <c r="I70">
         <v>1.600643828857363</v>
       </c>
       <c r="J70">
-        <v>1.612976351065534</v>
+        <v>1.645602865157139</v>
       </c>
       <c r="K70">
         <v>955.5267857142857</v>
@@ -3674,7 +3674,7 @@
         <v>380.3234464285696</v>
       </c>
       <c r="E71">
-        <v>369.7990860241561</v>
+        <v>379.0485711597676</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3683,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>1.02845967121651</v>
+        <v>1.00336335595436</v>
       </c>
       <c r="I71">
         <v>1.640151168630854</v>
       </c>
       <c r="J71">
-        <v>1.693883399055898</v>
+        <v>1.685075409975778</v>
       </c>
       <c r="K71">
         <v>955.3980654761905</v>
@@ -3715,7 +3715,7 @@
         <v>383.3070119047659</v>
       </c>
       <c r="E72">
-        <v>399.235865371334</v>
+        <v>392.6497609180014</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3724,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0.9601016470507918</v>
+        <v>0.9762058965949897</v>
       </c>
       <c r="I72">
         <v>1.63467942927441</v>
       </c>
       <c r="J72">
-        <v>1.718240714970875</v>
+        <v>1.687721242600905</v>
       </c>
       <c r="K72">
         <v>961.2633928571429</v>
@@ -3756,7 +3756,7 @@
         <v>353.7549226190451</v>
       </c>
       <c r="E73">
-        <v>349.2858232633698</v>
+        <v>366.192745747259</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3765,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>1.012794963488414</v>
+        <v>0.9660347637339647</v>
       </c>
       <c r="I73">
         <v>1.604125269309702</v>
       </c>
       <c r="J73">
-        <v>1.634171862026393</v>
+        <v>1.646079274441423</v>
       </c>
       <c r="K73">
         <v>975.2001488095239</v>
@@ -3797,7 +3797,7 @@
         <v>372.5074821428529</v>
       </c>
       <c r="E74">
-        <v>366.3556106231138</v>
+        <v>373.6805802295446</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3806,13 +3806,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>1.016792076718235</v>
+        <v>0.9968606929319926</v>
       </c>
       <c r="I74">
         <v>1.623809611880125</v>
       </c>
       <c r="J74">
-        <v>1.64478855106587</v>
+        <v>1.644822077707075</v>
       </c>
       <c r="K74">
         <v>981.4248511904761</v>
@@ -3838,7 +3838,7 @@
         <v>402.3621309523837</v>
       </c>
       <c r="E75">
-        <v>424.8910626432759</v>
+        <v>403.3515517534142</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3847,13 +3847,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0.9469771579784753</v>
+        <v>0.9975470013770136</v>
       </c>
       <c r="I75">
         <v>1.657980874301686</v>
       </c>
       <c r="J75">
-        <v>1.734936492832614</v>
+        <v>1.688593776679817</v>
       </c>
       <c r="K75">
         <v>974.5238095238095</v>
@@ -3879,7 +3879,7 @@
         <v>372.0108928571433</v>
       </c>
       <c r="E76">
-        <v>352.8559339845677</v>
+        <v>368.2014684679634</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3888,13 +3888,13 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1.054285494525404</v>
+        <v>1.010346032581104</v>
       </c>
       <c r="I76">
         <v>1.632826007778472</v>
       </c>
       <c r="J76">
-        <v>1.62798512763677</v>
+        <v>1.636570418025435</v>
       </c>
       <c r="K76">
         <v>973.3712797619048</v>
@@ -3920,7 +3920,7 @@
         <v>339.6575654761899</v>
       </c>
       <c r="E77">
-        <v>312.9566601695814</v>
+        <v>347.9723485070306</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3929,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1.085318220395566</v>
+        <v>0.9761050466609914</v>
       </c>
       <c r="I77">
         <v>1.584854299015789</v>
       </c>
       <c r="J77">
-        <v>1.566203012337188</v>
+        <v>1.606273837613394</v>
       </c>
       <c r="K77">
         <v>978.1078869047619</v>
@@ -3961,7 +3961,7 @@
         <v>360.6381369047588</v>
       </c>
       <c r="E78">
-        <v>331.4847406493486</v>
+        <v>357.5800265413789</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3970,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1.087947928457585</v>
+        <v>1.008552240439599</v>
       </c>
       <c r="I78">
         <v>1.60770588006845</v>
       </c>
       <c r="J78">
-        <v>1.597973195617145</v>
+        <v>1.623014085530205</v>
       </c>
       <c r="K78">
         <v>974.3958333333334</v>
@@ -4002,7 +4002,7 @@
         <v>374.2542797619078</v>
       </c>
       <c r="E79">
-        <v>350.6167482474243</v>
+        <v>366.9432387467392</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4011,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>1.067417006268631</v>
+        <v>1.019924174213262</v>
       </c>
       <c r="I79">
         <v>1.625766156821475</v>
       </c>
       <c r="J79">
-        <v>1.625523368041201</v>
+        <v>1.636004451897686</v>
       </c>
       <c r="K79">
         <v>974.5066964285714</v>
@@ -4043,7 +4043,7 @@
         <v>364.9573750000037</v>
       </c>
       <c r="E80">
-        <v>365.6001377107219</v>
+        <v>374.2925995776401</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4052,13 +4052,13 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0.9982418969677008</v>
+        <v>0.9750590190985062</v>
       </c>
       <c r="I80">
         <v>1.618511144185805</v>
       </c>
       <c r="J80">
-        <v>1.646008332446574</v>
+        <v>1.645092844596882</v>
       </c>
       <c r="K80">
         <v>974.4769345238095</v>
@@ -4084,7 +4084,7 @@
         <v>336.0816428571429</v>
       </c>
       <c r="E81">
-        <v>307.6766518595102</v>
+        <v>345.4661463720921</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4093,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1.092320918165097</v>
+        <v>0.9728352441664678</v>
       </c>
       <c r="I81">
         <v>1.578775846212964</v>
       </c>
       <c r="J81">
-        <v>1.562850805803545</v>
+        <v>1.60644599713876</v>
       </c>
       <c r="K81">
         <v>977.5267857142857</v>
@@ -4125,7 +4125,7 @@
         <v>323.3339583333304</v>
       </c>
       <c r="E82">
-        <v>321.3323859325946</v>
+        <v>351.9915034996912</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1.006228978118489</v>
+        <v>0.9185845542252244</v>
       </c>
       <c r="I82">
         <v>1.576359870485145</v>
       </c>
       <c r="J82">
-        <v>1.582390317453739</v>
+        <v>1.615794736053819</v>
       </c>
       <c r="K82">
         <v>978.7217261904761</v>
@@ -4166,7 +4166,7 @@
         <v>304.4733869047569</v>
       </c>
       <c r="E83">
-        <v>292.8366138749288</v>
+        <v>338.0894327211647</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4175,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>1.039738108141075</v>
+        <v>0.9005705515672471</v>
       </c>
       <c r="I83">
         <v>1.55509345412709</v>
       </c>
       <c r="J83">
-        <v>1.542255928612898</v>
+        <v>1.596924899410509</v>
       </c>
       <c r="K83">
         <v>978.2470238095239</v>
@@ -4207,7 +4207,7 @@
         <v>356.3818392857211</v>
       </c>
       <c r="E84">
-        <v>306.3002803451001</v>
+        <v>344.5942752337438</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4216,13 +4216,13 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1.163504776698851</v>
+        <v>1.034207080323611</v>
       </c>
       <c r="I84">
         <v>1.607952689537264</v>
       </c>
       <c r="J84">
-        <v>1.559042998609737</v>
+        <v>1.603629385705111</v>
       </c>
       <c r="K84">
         <v>978.921130952381</v>
@@ -4248,7 +4248,7 @@
         <v>289.8858333333351</v>
       </c>
       <c r="E85">
-        <v>290.7290871964955</v>
+        <v>336.8824895374903</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4257,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0.9970995201364543</v>
+        <v>0.8604954022137588</v>
       </c>
       <c r="I85">
         <v>1.533161701999339</v>
       </c>
       <c r="J85">
-        <v>1.534063413052274</v>
+        <v>1.590380948838082</v>
       </c>
       <c r="K85">
         <v>979.4761904761905</v>
@@ -4289,7 +4289,7 @@
         <v>308.4407619047533</v>
       </c>
       <c r="E86">
-        <v>286.2070104049868</v>
+        <v>334.8327375867459</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4298,13 +4298,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>1.077684161084333</v>
+        <v>0.9211786282541886</v>
       </c>
       <c r="I86">
         <v>1.554797450300363</v>
       </c>
       <c r="J86">
-        <v>1.530921628444432</v>
+        <v>1.590358533131832</v>
       </c>
       <c r="K86">
         <v>978.2946428571429</v>
@@ -4330,22 +4330,22 @@
         <v>210.7838928571492</v>
       </c>
       <c r="E87">
-        <v>283.2505502859717</v>
+        <v>332.8889778136046</v>
       </c>
       <c r="F87">
-        <v>-72.46665742882251</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>-72.46665742882251</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0.7441605767202935</v>
+        <v>0.6331957706787575</v>
       </c>
       <c r="I87">
         <v>1.436351797638831</v>
       </c>
       <c r="J87">
-        <v>1.510225099917864</v>
+        <v>1.572461598668177</v>
       </c>
       <c r="K87">
         <v>981.7916666666666</v>
@@ -4371,22 +4371,22 @@
         <v>257.1829642857136</v>
       </c>
       <c r="E88">
-        <v>284.6899931100944</v>
+        <v>333.2548217814606</v>
       </c>
       <c r="F88">
-        <v>-27.50702882438077</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>-99.97368625320328</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>0.9033790105374608</v>
+        <v>0.7717306621728859</v>
       </c>
       <c r="I88">
         <v>1.493740588445003</v>
       </c>
       <c r="J88">
-        <v>1.520629122174469</v>
+        <v>1.582138539730656</v>
       </c>
       <c r="K88">
         <v>984.1949404761905</v>
@@ -4412,22 +4412,22 @@
         <v>304.3017142857148</v>
       </c>
       <c r="E89">
-        <v>286.6194884524922</v>
+        <v>333.9591568971459</v>
       </c>
       <c r="F89">
-        <v>17.6822258332225</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>-82.29146041998078</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>1.061692336165597</v>
+        <v>0.91119440207305</v>
       </c>
       <c r="I89">
         <v>1.540278310997046</v>
       </c>
       <c r="J89">
-        <v>1.524986694723918</v>
+        <v>1.585310891576881</v>
       </c>
       <c r="K89">
         <v>985.9032738095239</v>
@@ -4453,22 +4453,22 @@
         <v>297.4212559523848</v>
       </c>
       <c r="E90">
-        <v>288.8021378730118</v>
+        <v>334.1831081111138</v>
       </c>
       <c r="F90">
-        <v>8.619118079372981</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>-73.6723423406078</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>1.02984437076142</v>
+        <v>0.889994882247292</v>
       </c>
       <c r="I90">
         <v>1.527102612755731</v>
       </c>
       <c r="J90">
-        <v>1.526699734481327</v>
+        <v>1.586427086254488</v>
       </c>
       <c r="K90">
         <v>991.8869047619048</v>
@@ -4494,22 +4494,22 @@
         <v>351.4746011904651</v>
       </c>
       <c r="E91">
-        <v>294.8215559130674</v>
+        <v>336.843169858702</v>
       </c>
       <c r="F91">
-        <v>56.65304527739772</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>-17.01929706321008</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>1.192160458220032</v>
+        <v>1.043436924482989</v>
       </c>
       <c r="I91">
         <v>1.584452821548302</v>
       </c>
       <c r="J91">
-        <v>1.535166725826816</v>
+        <v>1.590518358802346</v>
       </c>
       <c r="K91">
         <v>993.9434523809524</v>
@@ -4535,22 +4535,22 @@
         <v>274.5075000000042</v>
       </c>
       <c r="E92">
-        <v>289.856000137054</v>
+        <v>334.5848526552547</v>
       </c>
       <c r="F92">
-        <v>-15.34850013704983</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>-32.3677972002599</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>0.947047843999115</v>
+        <v>0.8204421025683664</v>
       </c>
       <c r="I92">
         <v>1.511543376216454</v>
       </c>
       <c r="J92">
-        <v>1.524499100613619</v>
+        <v>1.583020279596503</v>
       </c>
       <c r="K92">
         <v>992.6994047619048</v>
@@ -4576,22 +4576,22 @@
         <v>226.1321845238064</v>
       </c>
       <c r="E93">
-        <v>284.7867071137526</v>
+        <v>332.8496581348164</v>
       </c>
       <c r="F93">
-        <v>-58.6545225899462</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>-91.0223197902061</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>0.7940405183079077</v>
+        <v>0.6793823547573377</v>
       </c>
       <c r="I93">
         <v>1.447453075097497</v>
       </c>
       <c r="J93">
-        <v>1.513007789353551</v>
+        <v>1.574194210558407</v>
       </c>
       <c r="K93">
         <v>987.3958333333334</v>
@@ -4617,22 +4617,22 @@
         <v>218.6624940476225</v>
       </c>
       <c r="E94">
-        <v>284.8270518614937</v>
+        <v>332.8496581348164</v>
       </c>
       <c r="F94">
-        <v>-66.1645578138712</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>-157.1868776040773</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>0.7677026905223671</v>
+        <v>0.6569407199422634</v>
       </c>
       <c r="I94">
         <v>1.432074944501285</v>
       </c>
       <c r="J94">
-        <v>1.501176844171143</v>
+        <v>1.561313611555221</v>
       </c>
       <c r="K94">
         <v>987.5357142857143</v>
@@ -4658,22 +4658,22 @@
         <v>278.1169166666666</v>
       </c>
       <c r="E95">
-        <v>287.97145818428</v>
+        <v>333.7540107469463</v>
       </c>
       <c r="F95">
-        <v>-9.854541517613427</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>-167.0414191216907</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>0.965779450575594</v>
+        <v>0.8332990996699544</v>
       </c>
       <c r="I95">
         <v>1.497806385546245</v>
       </c>
       <c r="J95">
-        <v>1.510448417162488</v>
+        <v>1.568696418954906</v>
       </c>
       <c r="K95">
         <v>992.0416666666666</v>
@@ -4699,22 +4699,22 @@
         <v>376.3986071428628</v>
       </c>
       <c r="E96">
-        <v>298.9146012368255</v>
+        <v>339.0621673833611</v>
       </c>
       <c r="F96">
-        <v>77.48400590603728</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>-89.55741321565344</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>1.259217868867663</v>
+        <v>1.110116796715002</v>
       </c>
       <c r="I96">
         <v>1.576456288197636</v>
       </c>
       <c r="J96">
-        <v>1.530794171826756</v>
+        <v>1.58116452275628</v>
       </c>
       <c r="K96">
         <v>992.4404761904761</v>
@@ -4740,22 +4740,22 @@
         <v>274.4607797618955</v>
       </c>
       <c r="E97">
-        <v>293.8304846504324</v>
+        <v>336.9371951775435</v>
       </c>
       <c r="F97">
-        <v>-19.36970488853683</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>-108.9271181041903</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>0.934078640915762</v>
+        <v>0.8145754867380341</v>
       </c>
       <c r="I97">
         <v>1.493165731010845</v>
       </c>
       <c r="J97">
-        <v>1.51984496329262</v>
+        <v>1.573310951893503</v>
       </c>
       <c r="K97">
         <v>989.8422619047619</v>
@@ -4781,22 +4781,22 @@
         <v>324.2150773809602</v>
       </c>
       <c r="E98">
-        <v>301.8124011861578</v>
+        <v>340.505028639765</v>
       </c>
       <c r="F98">
-        <v>22.40267619480238</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>-86.52444190938789</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>1.074227156030558</v>
+        <v>0.9521594399827832</v>
       </c>
       <c r="I98">
         <v>1.566231126569151</v>
       </c>
       <c r="J98">
-        <v>1.53235678933468</v>
+        <v>1.580398725711553</v>
       </c>
       <c r="K98">
         <v>992.2827380952381</v>
@@ -4822,22 +4822,22 @@
         <v>335.417238095232</v>
       </c>
       <c r="E99">
-        <v>321.0522438670046</v>
+        <v>349.8374689225954</v>
       </c>
       <c r="F99">
-        <v>14.36499422822743</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>-72.15944768116046</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>1.044743478678748</v>
+        <v>0.9587801990685165</v>
       </c>
       <c r="I99">
         <v>1.565487255216931</v>
       </c>
       <c r="J99">
-        <v>1.553147747946411</v>
+        <v>1.587563738489962</v>
       </c>
       <c r="K99">
         <v>992.985119047619</v>
@@ -4863,22 +4863,22 @@
         <v>402.0326071428634</v>
       </c>
       <c r="E100">
-        <v>331.3171867210576</v>
+        <v>354.8703878074924</v>
       </c>
       <c r="F100">
-        <v>70.71542042180579</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>-1.444027259354669</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>1.213437223470518</v>
+        <v>1.132899844438289</v>
       </c>
       <c r="I100">
         <v>1.617896971742805</v>
       </c>
       <c r="J100">
-        <v>1.570272825698438</v>
+        <v>1.597304383684783</v>
       </c>
       <c r="K100">
         <v>992.9791666666666</v>
@@ -4904,22 +4904,22 @@
         <v>351.111952380948</v>
       </c>
       <c r="E101">
-        <v>327.9224721725363</v>
+        <v>353.2121230933789</v>
       </c>
       <c r="F101">
-        <v>23.18948020841162</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>21.74545294905695</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>1.070716349674903</v>
+        <v>0.994054080890435</v>
       </c>
       <c r="I101">
         <v>1.591508463478796</v>
       </c>
       <c r="J101">
-        <v>1.563539123721077</v>
+        <v>1.592786677162983</v>
       </c>
       <c r="K101">
         <v>992.9375</v>
@@ -4945,22 +4945,22 @@
         <v>378.5070297619039</v>
       </c>
       <c r="E102">
-        <v>361.0516951545485</v>
+        <v>369.0887255675767</v>
       </c>
       <c r="F102">
-        <v>17.45533460735544</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>39.20078755641239</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>1.048345804331105</v>
+        <v>1.025517723901872</v>
       </c>
       <c r="I102">
         <v>1.620212835005963</v>
       </c>
       <c r="J102">
-        <v>1.607078052913528</v>
+        <v>1.613635091827801</v>
       </c>
       <c r="K102">
         <v>995.5119047619048</v>
@@ -4986,22 +4986,22 @@
         <v>413.7367023809569</v>
       </c>
       <c r="E103">
-        <v>359.197534251065</v>
+        <v>368.6237276271243</v>
       </c>
       <c r="F103">
-        <v>54.53916812989195</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>93.73995568630434</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>1.151836142872215</v>
+        <v>1.12238217828307</v>
       </c>
       <c r="I103">
         <v>1.637046408519591</v>
       </c>
       <c r="J103">
-        <v>1.610421998053636</v>
+        <v>1.61763740473441</v>
       </c>
       <c r="K103">
         <v>992.3720238095239</v>
@@ -5027,22 +5027,22 @@
         <v>370.8745357142761</v>
       </c>
       <c r="E104">
-        <v>366.7820189151838</v>
+        <v>372.3556780095055</v>
       </c>
       <c r="F104">
-        <v>4.09251679909238</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>97.83247248539672</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>1.01115789920999</v>
+        <v>0.996022237922765</v>
       </c>
       <c r="I104">
         <v>1.611093541154507</v>
       </c>
       <c r="J104">
-        <v>1.616965165481657</v>
+        <v>1.618871294885202</v>
       </c>
       <c r="K104">
         <v>992.2738095238095</v>
@@ -5068,22 +5068,22 @@
         <v>346.9753809523868</v>
       </c>
       <c r="E105">
-        <v>343.4650678499094</v>
+        <v>360.8743318033342</v>
       </c>
       <c r="F105">
-        <v>3.510313102477483</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>101.3427855878742</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>1.010220291467927</v>
+        <v>0.9614853437164883</v>
       </c>
       <c r="I105">
         <v>1.593152956465952</v>
       </c>
       <c r="J105">
-        <v>1.58505151679362</v>
+        <v>1.603190963017028</v>
       </c>
       <c r="K105">
         <v>992.6339285714286</v>
@@ -5109,22 +5109,22 @@
         <v>378.5731607142869</v>
       </c>
       <c r="E106">
-        <v>406.6372947408623</v>
+        <v>391.1709990853126</v>
       </c>
       <c r="F106">
-        <v>-28.0641340265754</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>73.2786515612988</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>0.9309848496693846</v>
+        <v>0.9677945491856921</v>
       </c>
       <c r="I106">
         <v>1.634257502936944</v>
       </c>
       <c r="J106">
-        <v>1.661964465943373</v>
+        <v>1.637397798812191</v>
       </c>
       <c r="K106">
         <v>997.3839285714286</v>
@@ -5150,22 +5150,22 @@
         <v>328.726750000003</v>
       </c>
       <c r="E107">
-        <v>337.8648071991945</v>
+        <v>356.6927694417656</v>
       </c>
       <c r="F107">
-        <v>-9.138057199191508</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>64.14059436210729</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>0.9729535097930339</v>
+        <v>0.9215963376955182</v>
       </c>
       <c r="I107">
         <v>1.574362506979673</v>
       </c>
       <c r="J107">
-        <v>1.566479585953359</v>
+        <v>1.590348319032341</v>
       </c>
       <c r="K107">
         <v>1002.791666666667</v>
@@ -5191,22 +5191,22 @@
         <v>322.1120595238061</v>
       </c>
       <c r="E108">
-        <v>328.0343238955317</v>
+        <v>351.7179752994251</v>
       </c>
       <c r="F108">
-        <v>-5.922264371725646</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>58.21832999038165</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>0.9819462051976863</v>
+        <v>0.9158248430424549</v>
       </c>
       <c r="I108">
         <v>1.565328450188139</v>
       </c>
       <c r="J108">
-        <v>1.552204923461107</v>
+        <v>1.582957201347841</v>
       </c>
       <c r="K108">
         <v>1003.892857142857</v>
@@ -5232,22 +5232,22 @@
         <v>402.2693869047632</v>
       </c>
       <c r="E109">
-        <v>421.9339623235853</v>
+        <v>397.6177168553353</v>
       </c>
       <c r="F109">
-        <v>-19.66457541882215</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>38.55375457155949</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>0.9533941868283615</v>
+        <v>1.011698850056826</v>
       </c>
       <c r="I109">
         <v>1.649097685745922</v>
       </c>
       <c r="J109">
-        <v>1.677908955317066</v>
+        <v>1.644517696299107</v>
       </c>
       <c r="K109">
         <v>1004.824404761905</v>
@@ -5273,22 +5273,22 @@
         <v>384.978470238092</v>
       </c>
       <c r="E110">
-        <v>396.2541299958307</v>
+        <v>384.0968760059296</v>
       </c>
       <c r="F110">
-        <v>-11.27565975773871</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>27.27809481382079</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>0.9715443729056973</v>
+        <v>1.002295239267056</v>
       </c>
       <c r="I110">
         <v>1.628441658711434</v>
       </c>
       <c r="J110">
-        <v>1.639410385318714</v>
+        <v>1.624930982670052</v>
       </c>
       <c r="K110">
         <v>1011.416666666667</v>
@@ -5314,22 +5314,22 @@
         <v>385.3917261904849</v>
       </c>
       <c r="E111">
-        <v>405.578240414163</v>
+        <v>388.4733272101878</v>
       </c>
       <c r="F111">
-        <v>-20.1865142236781</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>7.091580590142684</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>0.950227817441428</v>
+        <v>0.9920674064244427</v>
       </c>
       <c r="I111">
         <v>1.628550463132156</v>
       </c>
       <c r="J111">
-        <v>1.653957171577679</v>
+        <v>1.633388029729878</v>
       </c>
       <c r="K111">
         <v>1012.791666666667</v>
@@ -5355,22 +5355,22 @@
         <v>327.413577380945</v>
       </c>
       <c r="E112">
-        <v>325.3704831949279</v>
+        <v>348.7878044540741</v>
       </c>
       <c r="F112">
-        <v>2.043094186017015</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>9.134674776159699</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>1.006279285588401</v>
+        <v>0.9387185365996834</v>
       </c>
       <c r="I112">
         <v>1.570723039668468</v>
       </c>
       <c r="J112">
-        <v>1.543560037094981</v>
+        <v>1.578146426535229</v>
       </c>
       <c r="K112">
         <v>1015.380952380952</v>
@@ -5396,22 +5396,22 @@
         <v>373.4302678571437</v>
       </c>
       <c r="E113">
-        <v>399.8651977510908</v>
+        <v>385.3465579708955</v>
       </c>
       <c r="F113">
-        <v>-26.43492989394707</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>-17.30025511778737</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>0.9338903959568835</v>
+        <v>0.9690764329737395</v>
       </c>
       <c r="I113">
         <v>0.1873026997491127</v>
       </c>
       <c r="J113">
-        <v>0.1896445440704983</v>
+        <v>0.1877810225769665</v>
       </c>
       <c r="K113">
         <v>1015.098214285714</v>
@@ -5437,22 +5437,22 @@
         <v>379.2726249999943</v>
       </c>
       <c r="E114">
-        <v>364.3675943212846</v>
+        <v>368.0749616753403</v>
       </c>
       <c r="F114">
-        <v>14.90503067870975</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>-2.395224439077623</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>1.040906575971647</v>
+        <v>1.030422235931742</v>
       </c>
       <c r="I114">
         <v>1.47109006975278</v>
       </c>
       <c r="J114">
-        <v>1.440832300225289</v>
+        <v>1.447874294946918</v>
       </c>
       <c r="K114">
         <v>1014.178571428571</v>
@@ -5478,22 +5478,22 @@
         <v>332.7493571428627</v>
       </c>
       <c r="E115">
-        <v>332.8527941960049</v>
+        <v>353.2292186058955</v>
       </c>
       <c r="F115">
-        <v>-0.1034370531422155</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>-2.498661492219838</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>0.9996892408447642</v>
+        <v>0.9420210436048818</v>
       </c>
       <c r="I115">
         <v>1.418306737021328</v>
       </c>
       <c r="J115">
-        <v>1.40337607084799</v>
+        <v>1.429046405964002</v>
       </c>
       <c r="K115">
         <v>1009.910714285714</v>
@@ -5519,22 +5519,22 @@
         <v>360.8601011904843</v>
       </c>
       <c r="E116">
-        <v>342.9522923042545</v>
+        <v>358.5425038960653</v>
       </c>
       <c r="F116">
-        <v>17.90780888622982</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>15.40914739400998</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>1.052216618136329</v>
+        <v>1.006463940172323</v>
       </c>
       <c r="I116">
         <v>1.448484773894009</v>
       </c>
       <c r="J116">
-        <v>1.416260524023409</v>
+        <v>1.435274694264375</v>
       </c>
       <c r="K116">
         <v>1007.348214285714</v>
@@ -5560,22 +5560,22 @@
         <v>380.099351190463</v>
       </c>
       <c r="E117">
-        <v>387.5599708937718</v>
+        <v>380.8641145890341</v>
       </c>
       <c r="F117">
-        <v>-7.460619703308851</v>
+        <v>-0.7647633985711195</v>
       </c>
       <c r="G117">
-        <v>7.948527690701127</v>
+        <v>-0.7647633985711195</v>
       </c>
       <c r="H117">
-        <v>0.9807497670977126</v>
+        <v>0.9979920308338938</v>
       </c>
       <c r="I117">
         <v>1.469896962883627</v>
       </c>
       <c r="J117">
-        <v>1.476402431964491</v>
+        <v>1.467394126512646</v>
       </c>
       <c r="K117">
         <v>1004.136904761905</v>
@@ -5601,22 +5601,22 @@
         <v>384.1952738095285</v>
       </c>
       <c r="E118">
-        <v>382.4255552937693</v>
+        <v>378.0399359212862</v>
       </c>
       <c r="F118">
-        <v>1.769718515759223</v>
+        <v>6.155337888242343</v>
       </c>
       <c r="G118">
-        <v>9.71824620646035</v>
+        <v>5.390574489671224</v>
       </c>
       <c r="H118">
-        <v>1.00462761573138</v>
+        <v>1.016282242438862</v>
       </c>
       <c r="I118">
         <v>1.471019616096082</v>
       </c>
       <c r="J118">
-        <v>1.465337355541965</v>
+        <v>1.459898783280458</v>
       </c>
       <c r="K118">
         <v>1006.309523809524</v>
@@ -5642,22 +5642,22 @@
         <v>385.0952321428562</v>
       </c>
       <c r="E119">
-        <v>363.3583287056949</v>
+        <v>367.9997414202671</v>
       </c>
       <c r="F119">
-        <v>21.73690343716129</v>
+        <v>17.09549072258903</v>
       </c>
       <c r="G119">
-        <v>31.45514964362164</v>
+        <v>22.48606521226026</v>
       </c>
       <c r="H119">
-        <v>1.059822224289146</v>
+        <v>1.04645517047542</v>
       </c>
       <c r="I119">
         <v>1.472322448399733</v>
       </c>
       <c r="J119">
-        <v>1.439062788952305</v>
+        <v>1.446178178727229</v>
       </c>
       <c r="K119">
         <v>1011.21130952381</v>
@@ -5683,22 +5683,22 @@
         <v>375.0175476190578</v>
       </c>
       <c r="E120">
-        <v>348.1158366865517</v>
+        <v>359.9990415624825</v>
       </c>
       <c r="F120">
-        <v>26.90171093250615</v>
+        <v>15.01850605657529</v>
       </c>
       <c r="G120">
-        <v>58.35686057612779</v>
+        <v>37.50457126883555</v>
       </c>
       <c r="H120">
-        <v>1.077278043965374</v>
+        <v>1.041718183446799</v>
       </c>
       <c r="I120">
         <v>1.456163578559907</v>
       </c>
       <c r="J120">
-        <v>1.41866497295174</v>
+        <v>1.435728310487115</v>
       </c>
       <c r="K120">
         <v>1014.949404761905</v>
@@ -5724,22 +5724,22 @@
         <v>394.9438928571374</v>
       </c>
       <c r="E121">
-        <v>378.7464015750263</v>
+        <v>374.1045489399571</v>
       </c>
       <c r="F121">
-        <v>16.19749128211112</v>
+        <v>20.83934391718032</v>
       </c>
       <c r="G121">
-        <v>74.5543518582389</v>
+        <v>58.34391518601586</v>
       </c>
       <c r="H121">
-        <v>1.042766059861568</v>
+        <v>1.055704599091964</v>
       </c>
       <c r="I121">
         <v>1.473072588488984</v>
       </c>
       <c r="J121">
-        <v>1.451173033101619</v>
+        <v>1.450674184366834</v>
       </c>
       <c r="K121">
         <v>1021.386904761905</v>
@@ -5765,22 +5765,22 @@
         <v>389.0166904761877</v>
       </c>
       <c r="E122">
-        <v>385.2446242433683</v>
+        <v>377.5510042633105</v>
       </c>
       <c r="F122">
-        <v>3.772066232819384</v>
+        <v>11.46568621287724</v>
       </c>
       <c r="G122">
-        <v>78.32641809105829</v>
+        <v>69.80960139889311</v>
       </c>
       <c r="H122">
-        <v>1.009791353325768</v>
+        <v>1.030368575592189</v>
       </c>
       <c r="I122">
         <v>1.472326702165351</v>
       </c>
       <c r="J122">
-        <v>1.458104521196165</v>
+        <v>1.453342332792212</v>
       </c>
       <c r="K122">
         <v>1019.541666666667</v>
@@ -5806,22 +5806,22 @@
         <v>401.365803571429</v>
       </c>
       <c r="E123">
-        <v>390.5209030351087</v>
+        <v>380.6829021563578</v>
       </c>
       <c r="F123">
-        <v>10.84490053632027</v>
+        <v>20.68290141507123</v>
       </c>
       <c r="G123">
-        <v>89.17131862737855</v>
+        <v>90.49250281396434</v>
       </c>
       <c r="H123">
-        <v>1.027770345843294</v>
+        <v>1.054331049011957</v>
       </c>
       <c r="I123">
         <v>1.489925053143031</v>
       </c>
       <c r="J123">
-        <v>1.468534926406103</v>
+        <v>1.459910008462773</v>
       </c>
       <c r="K123">
         <v>1015.684523809524</v>
@@ -5847,22 +5847,22 @@
         <v>400.9075416666677</v>
       </c>
       <c r="E124">
-        <v>394.1410530301727</v>
+        <v>382.3035567429347</v>
       </c>
       <c r="F124">
-        <v>6.766488636495069</v>
+        <v>18.60398492373304</v>
       </c>
       <c r="G124">
-        <v>95.93780726387362</v>
+        <v>109.0964877376974</v>
       </c>
       <c r="H124">
-        <v>1.017167682951253</v>
+        <v>1.048662861214871</v>
       </c>
       <c r="I124">
         <v>1.483589215446436</v>
       </c>
       <c r="J124">
-        <v>1.468810925050417</v>
+        <v>1.458221003372777</v>
       </c>
       <c r="K124">
         <v>1016.77380952381</v>
@@ -5888,22 +5888,22 @@
         <v>400.9366845237978</v>
       </c>
       <c r="E125">
-        <v>398.4757544549033</v>
+        <v>383.6352971679805</v>
       </c>
       <c r="F125">
-        <v>2.46093006889447</v>
+        <v>17.30138735581733</v>
       </c>
       <c r="G125">
-        <v>98.39873733276809</v>
+        <v>126.3978750935147</v>
       </c>
       <c r="H125">
-        <v>1.006175858986103</v>
+        <v>1.045098528429311</v>
       </c>
       <c r="I125">
         <v>1.482187563629335</v>
       </c>
       <c r="J125">
-        <v>1.469918019883661</v>
+        <v>1.457751732387844</v>
       </c>
       <c r="K125">
         <v>1022.383928571429</v>
@@ -5929,22 +5929,22 @@
         <v>389.2117440476238</v>
       </c>
       <c r="E126">
-        <v>356.5822151395978</v>
+        <v>362.347964982268</v>
       </c>
       <c r="F126">
-        <v>32.62952890802592</v>
+        <v>26.86377906535574</v>
       </c>
       <c r="G126">
-        <v>131.028266240794</v>
+        <v>153.2616541588704</v>
       </c>
       <c r="H126">
-        <v>1.091506327356377</v>
+        <v>1.074138070753814</v>
       </c>
       <c r="I126">
         <v>1.473786175248547</v>
       </c>
       <c r="J126">
-        <v>1.418329441282336</v>
+        <v>1.432190698183436</v>
       </c>
       <c r="K126">
         <v>1027.690476190476</v>
@@ -5970,22 +5970,22 @@
         <v>375.2231000000611</v>
       </c>
       <c r="E127">
-        <v>295.747945875582</v>
+        <v>332.8496581348164</v>
       </c>
       <c r="F127">
-        <v>79.47515412447905</v>
+        <v>42.37344186524473</v>
       </c>
       <c r="G127">
-        <v>210.5034203652731</v>
+        <v>195.6350960241152</v>
       </c>
       <c r="H127">
-        <v>1.268725971668839</v>
+        <v>1.127305048479521</v>
       </c>
       <c r="I127">
         <v>1.445091805202321</v>
       </c>
       <c r="J127">
-        <v>1.347523544612386</v>
+        <v>1.397778113749093</v>
       </c>
       <c r="K127">
         <v>1025.4</v>
@@ -6008,7 +6008,7 @@
         <v>171.1205633802825</v>
       </c>
       <c r="E128">
-        <v>209.5386115631048</v>
+        <v>231.867212638798</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -6017,13 +6017,13 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>0.8166540863460274</v>
+        <v>0.73801104275512</v>
       </c>
       <c r="I128">
         <v>1.630455377278746</v>
       </c>
       <c r="J128">
-        <v>1.842183407604939</v>
+        <v>1.798126280469262</v>
       </c>
       <c r="K128">
         <v>455.881161971831</v>
@@ -6049,7 +6049,7 @@
         <v>180.4017142857137</v>
       </c>
       <c r="E129">
-        <v>187.6750803493031</v>
+        <v>218.0116553769717</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -6058,13 +6058,13 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>0.9612449023596946</v>
+        <v>0.8274865578804704</v>
       </c>
       <c r="I129">
         <v>1.649540974392558</v>
       </c>
       <c r="J129">
-        <v>1.777047275591976</v>
+        <v>1.756975186219274</v>
       </c>
       <c r="K129">
         <v>464.2593005952381</v>
@@ -6090,7 +6090,7 @@
         <v>178.8883571428541</v>
       </c>
       <c r="E130">
-        <v>191.3989746224911</v>
+        <v>220.0887704030036</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -6099,13 +6099,13 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>0.9346359221395385</v>
+        <v>0.8128009294399364</v>
       </c>
       <c r="I130">
         <v>1.639706442919475</v>
       </c>
       <c r="J130">
-        <v>-7.102559283548662</v>
+        <v>-7.126066821416256</v>
       </c>
       <c r="K130">
         <v>465.125744047619</v>
@@ -6131,7 +6131,7 @@
         <v>192.5762619047642</v>
       </c>
       <c r="E131">
-        <v>217.8005071706523</v>
+        <v>235.5099829482468</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -6140,13 +6140,13 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>0.8841864714019042</v>
+        <v>0.8176989335822878</v>
       </c>
       <c r="I131">
         <v>1.661933474682215</v>
       </c>
       <c r="J131">
-        <v>1.778155098556331</v>
+        <v>1.7289271498201</v>
       </c>
       <c r="K131">
         <v>465.6331845238095</v>
@@ -6172,7 +6172,7 @@
         <v>174.7283273809534</v>
       </c>
       <c r="E132">
-        <v>125.7687690848823</v>
+        <v>181.4639965801149</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -6181,13 +6181,13 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>1.389282320661244</v>
+        <v>0.9628815118916013</v>
       </c>
       <c r="I132">
         <v>1.627674989385667</v>
       </c>
       <c r="J132">
-        <v>1.599968928170657</v>
+        <v>1.640697729465369</v>
       </c>
       <c r="K132">
         <v>466.2157738095238</v>
@@ -6213,7 +6213,7 @@
         <v>173.1090297619036</v>
       </c>
       <c r="E133">
-        <v>133.633622882691</v>
+        <v>186.2382864631404</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -6222,13 +6222,13 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>1.295400259513025</v>
+        <v>0.9295029129048858</v>
       </c>
       <c r="I133">
         <v>1.600643828857363</v>
       </c>
       <c r="J133">
-        <v>1.612976351065534</v>
+        <v>1.645602865157139</v>
       </c>
       <c r="K133">
         <v>464.9040178571428</v>
@@ -6254,7 +6254,7 @@
         <v>170.290410714285</v>
       </c>
       <c r="E134">
-        <v>176.0656031624041</v>
+        <v>211.3583963092134</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -6263,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>0.9671986330981862</v>
+        <v>0.8056950359575652</v>
       </c>
       <c r="I134">
         <v>1.640151168630854</v>
       </c>
       <c r="J134">
-        <v>1.693883399055898</v>
+        <v>1.685075409975778</v>
       </c>
       <c r="K134">
         <v>462.999255952381</v>
@@ -6295,7 +6295,7 @@
         <v>185.9341250000039</v>
       </c>
       <c r="E135">
-        <v>208.5188271728523</v>
+        <v>224.9484679762442</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6304,13 +6304,13 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0.8916898657111344</v>
+        <v>0.8265631976637402</v>
       </c>
       <c r="I135">
         <v>1.63467942927441</v>
       </c>
       <c r="J135">
-        <v>1.718240714970875</v>
+        <v>1.687721242600905</v>
       </c>
       <c r="K135">
         <v>507.1357886904762</v>
@@ -6336,7 +6336,7 @@
         <v>186.092333333334</v>
       </c>
       <c r="E136">
-        <v>167.9910073210647</v>
+        <v>198.5130797008584</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6345,13 +6345,13 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>1.107751755888183</v>
+        <v>0.9374310932748543</v>
       </c>
       <c r="I136">
         <v>1.604125269309702</v>
       </c>
       <c r="J136">
-        <v>1.634171862026393</v>
+        <v>1.646079274441423</v>
       </c>
       <c r="K136">
         <v>528.7619047619048</v>
@@ -6377,7 +6377,7 @@
         <v>188.9006130952344</v>
       </c>
       <c r="E137">
-        <v>183.9638616617527</v>
+        <v>205.9947933637034</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6386,13 +6386,13 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>1.026835441422504</v>
+        <v>0.9170164449822397</v>
       </c>
       <c r="I137">
         <v>1.623809611880125</v>
       </c>
       <c r="J137">
-        <v>1.64478855106587</v>
+        <v>1.644822077707075</v>
       </c>
       <c r="K137">
         <v>544.0550595238095</v>
@@ -6418,7 +6418,7 @@
         <v>212.8680833333333</v>
       </c>
       <c r="E138">
-        <v>237.1219178255161</v>
+        <v>235.641510791178</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -6427,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>0.8977157627831361</v>
+        <v>0.9033556210814391</v>
       </c>
       <c r="I138">
         <v>1.657980874301686</v>
       </c>
       <c r="J138">
-        <v>1.734936492832614</v>
+        <v>1.688593776679817</v>
       </c>
       <c r="K138">
         <v>556.4542410714286</v>
@@ -6459,7 +6459,7 @@
         <v>201.0331488095246</v>
       </c>
       <c r="E139">
-        <v>177.4410990631911</v>
+        <v>200.5201604209138</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -6468,13 +6468,13 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>1.132957076296804</v>
+        <v>1.002558288341352</v>
       </c>
       <c r="I139">
         <v>1.632826007778472</v>
       </c>
       <c r="J139">
-        <v>1.62798512763677</v>
+        <v>1.636570418025435</v>
       </c>
       <c r="K139">
         <v>557.4285714285714</v>
@@ -6500,7 +6500,7 @@
         <v>173.6932559523792</v>
       </c>
       <c r="E140">
-        <v>142.3048110389675</v>
+        <v>180.3075764546021</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -6509,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>1.220571916608052</v>
+        <v>0.963316458285999</v>
       </c>
       <c r="I140">
         <v>1.584854299015789</v>
       </c>
       <c r="J140">
-        <v>1.566203012337188</v>
+        <v>1.606273837613394</v>
       </c>
       <c r="K140">
         <v>554.234375</v>
@@ -6541,7 +6541,7 @@
         <v>185.8802083333333</v>
       </c>
       <c r="E141">
-        <v>159.7098892536295</v>
+        <v>189.9074008347823</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -6550,13 +6550,13 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>1.163861606829767</v>
+        <v>0.9787939149093376</v>
       </c>
       <c r="I141">
         <v>1.60770588006845</v>
       </c>
       <c r="J141">
-        <v>1.597973195617145</v>
+        <v>1.623014085530205</v>
       </c>
       <c r="K141">
         <v>559.1629464285714</v>
@@ -6582,7 +6582,7 @@
         <v>200.6158035714318</v>
       </c>
       <c r="E142">
-        <v>176.0230620783095</v>
+        <v>199.2629592209472</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -6591,13 +6591,13 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>1.13971317850488</v>
+        <v>1.006789241491614</v>
       </c>
       <c r="I142">
         <v>1.625766156821475</v>
       </c>
       <c r="J142">
-        <v>1.625523368041201</v>
+        <v>1.636004451897686</v>
       </c>
       <c r="K142">
         <v>560.8794642857143</v>
@@ -6623,7 +6623,7 @@
         <v>186.5673095238079</v>
       </c>
       <c r="E143">
-        <v>188.0569223412002</v>
+        <v>206.6063124256438</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -6632,13 +6632,13 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0.9920789258972897</v>
+        <v>0.9030087577355713</v>
       </c>
       <c r="I143">
         <v>1.618511144185805</v>
       </c>
       <c r="J143">
-        <v>1.646008332446574</v>
+        <v>1.645092844596882</v>
       </c>
       <c r="K143">
         <v>558.561755952381</v>
@@ -6664,7 +6664,7 @@
         <v>163.2331904761903</v>
       </c>
       <c r="E144">
-        <v>139.2870485381048</v>
+        <v>177.8034229774946</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -6673,13 +6673,13 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>1.171919372184375</v>
+        <v>0.9180542632008359</v>
       </c>
       <c r="I144">
         <v>1.578775846212964</v>
       </c>
       <c r="J144">
-        <v>1.562850805803545</v>
+        <v>1.60644599713876</v>
       </c>
       <c r="K144">
         <v>560.1889880952381</v>
@@ -6705,7 +6705,7 @@
         <v>164.7527857142822</v>
       </c>
       <c r="E145">
-        <v>150.4234788429599</v>
+        <v>184.3234460485173</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -6714,13 +6714,13 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>1.095259775811208</v>
+        <v>0.8938243573794525</v>
       </c>
       <c r="I145">
         <v>1.576359870485145</v>
       </c>
       <c r="J145">
-        <v>1.582390317453739</v>
+        <v>1.615794736053819</v>
       </c>
       <c r="K145">
         <v>560.2797619047619</v>
@@ -6746,7 +6746,7 @@
         <v>147.6947440476256</v>
       </c>
       <c r="E146">
-        <v>127.0074228386503</v>
+        <v>170.4327393119292</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -6755,13 +6755,13 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>1.162882772885302</v>
+        <v>0.8665866936358511</v>
       </c>
       <c r="I146">
         <v>1.55509345412709</v>
       </c>
       <c r="J146">
-        <v>1.542255928612898</v>
+        <v>1.596924899410509</v>
       </c>
       <c r="K146">
         <v>561.5595238095239</v>
@@ -6787,7 +6787,7 @@
         <v>179.3298214285695</v>
       </c>
       <c r="E147">
-        <v>138.5388336136032</v>
+        <v>176.9322645373003</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -6796,13 +6796,13 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>1.294437211220761</v>
+        <v>1.013550704827857</v>
       </c>
       <c r="I147">
         <v>1.607952689537264</v>
       </c>
       <c r="J147">
-        <v>1.559042998609737</v>
+        <v>1.603629385705111</v>
       </c>
       <c r="K147">
         <v>563.6949404761905</v>
@@ -6828,7 +6828,7 @@
         <v>139.1251607142843</v>
       </c>
       <c r="E148">
-        <v>125.4167393732746</v>
+        <v>169.2267827260916</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -6837,13 +6837,13 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>1.109302963938568</v>
+        <v>0.8221225888308153</v>
       </c>
       <c r="I148">
         <v>1.533161701999339</v>
       </c>
       <c r="J148">
-        <v>1.534063413052274</v>
+        <v>1.590380948838082</v>
       </c>
       <c r="K148">
         <v>563.7738095238095</v>
@@ -6869,7 +6869,7 @@
         <v>151.4407380952367</v>
       </c>
       <c r="E149">
-        <v>121.8062699246042</v>
+        <v>167.1787063147329</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -6878,13 +6878,13 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>1.243291812391724</v>
+        <v>0.9058614068357026</v>
       </c>
       <c r="I149">
         <v>1.554797450300363</v>
       </c>
       <c r="J149">
-        <v>1.530921628444432</v>
+        <v>1.590358533131832</v>
       </c>
       <c r="K149">
         <v>563.2113095238095</v>
@@ -6910,22 +6910,22 @@
         <v>86.21389285714498</v>
       </c>
       <c r="E150">
-        <v>118.4358328013337</v>
+        <v>165.2365354392409</v>
       </c>
       <c r="F150">
-        <v>-32.2219399441887</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>-32.2219399441887</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>0.727937574448112</v>
+        <v>0.5217604728153277</v>
       </c>
       <c r="I150">
         <v>1.436351797638831</v>
       </c>
       <c r="J150">
-        <v>1.510225099917864</v>
+        <v>1.572461598668177</v>
       </c>
       <c r="K150">
         <v>562.9315476190476</v>
@@ -6951,22 +6951,22 @@
         <v>106.4861011904764</v>
       </c>
       <c r="E151">
-        <v>119.1617591857229</v>
+        <v>165.6020803533617</v>
       </c>
       <c r="F151">
-        <v>-12.6756579952465</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>-44.8975979394352</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>0.8936264613592143</v>
+        <v>0.6430239340185607</v>
       </c>
       <c r="I151">
         <v>1.493740588445003</v>
       </c>
       <c r="J151">
-        <v>1.520629122174469</v>
+        <v>1.582138539730656</v>
       </c>
       <c r="K151">
         <v>563.4196428571429</v>
@@ -6992,22 +6992,22 @@
         <v>139.8847857142876</v>
       </c>
       <c r="E152">
-        <v>120.6192657085029</v>
+        <v>166.3058397207343</v>
       </c>
       <c r="F152">
-        <v>19.26552000578475</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>-25.63207793365045</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>1.159721748367655</v>
+        <v>0.8411297279108558</v>
       </c>
       <c r="I152">
         <v>1.540278310997046</v>
       </c>
       <c r="J152">
-        <v>1.524986694723918</v>
+        <v>1.585310891576881</v>
       </c>
       <c r="K152">
         <v>564.6443452380952</v>
@@ -7033,22 +7033,22 @@
         <v>122.2816845238087</v>
       </c>
       <c r="E153">
-        <v>121.2157803093994</v>
+        <v>166.5296078690979</v>
       </c>
       <c r="F153">
-        <v>1.065904214409244</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>-24.56617371924121</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>1.008793444316314</v>
+        <v>0.7342939558227345</v>
       </c>
       <c r="I153">
         <v>1.527102612755731</v>
       </c>
       <c r="J153">
-        <v>1.526699734481327</v>
+        <v>1.586427086254488</v>
       </c>
       <c r="K153">
         <v>565.6666666666666</v>
@@ -7074,22 +7074,22 @@
         <v>161.4105535714272</v>
       </c>
       <c r="E154">
-        <v>126.7593870355192</v>
+        <v>169.1874951885926</v>
       </c>
       <c r="F154">
-        <v>34.65116653590796</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>10.08499281666676</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>1.273361739483628</v>
+        <v>0.9540335909075519</v>
       </c>
       <c r="I154">
         <v>1.584452821548302</v>
       </c>
       <c r="J154">
-        <v>1.535166725826816</v>
+        <v>1.590518358802346</v>
       </c>
       <c r="K154">
         <v>570.4776785714286</v>
@@ -7115,22 +7115,22 @@
         <v>123.2815059523813</v>
       </c>
       <c r="E155">
-        <v>123.5517509047368</v>
+        <v>166.931024013109</v>
       </c>
       <c r="F155">
-        <v>-0.2702449523554549</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>9.8147478643113</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>0.9978126983197201</v>
+        <v>0.7385176403320937</v>
       </c>
       <c r="I155">
         <v>1.511543376216454</v>
       </c>
       <c r="J155">
-        <v>1.524499100613619</v>
+        <v>1.583020279596503</v>
       </c>
       <c r="K155">
         <v>573.5208333333334</v>
@@ -7156,22 +7156,22 @@
         <v>84.55127976190332</v>
       </c>
       <c r="E156">
-        <v>120.480639347995</v>
+        <v>165.1972479017419</v>
       </c>
       <c r="F156">
-        <v>-35.92935958609172</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>-26.11461172178042</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>0.7017831264796518</v>
+        <v>0.5118201473440633</v>
       </c>
       <c r="I156">
         <v>1.447453075097497</v>
       </c>
       <c r="J156">
-        <v>1.513007789353551</v>
+        <v>1.574194210558407</v>
       </c>
       <c r="K156">
         <v>572.9747023809524</v>
@@ -7197,22 +7197,22 @@
         <v>84.42986904762108</v>
       </c>
       <c r="E157">
-        <v>129.6002564096364</v>
+        <v>165.1972479017419</v>
       </c>
       <c r="F157">
-        <v>-45.17038736201528</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>-71.2849990837957</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>0.6514637500465882</v>
+        <v>0.5110852034159753</v>
       </c>
       <c r="I157">
         <v>1.432074944501285</v>
       </c>
       <c r="J157">
-        <v>1.501176844171143</v>
+        <v>1.561313611555221</v>
       </c>
       <c r="K157">
         <v>616.3452380952381</v>
@@ -7238,22 +7238,22 @@
         <v>123.727249999999</v>
       </c>
       <c r="E158">
-        <v>133.6308000408132</v>
+        <v>166.100861264218</v>
       </c>
       <c r="F158">
-        <v>-9.903550040814181</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>-81.18854912460988</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>0.9258887169889767</v>
+        <v>0.7448922844727766</v>
       </c>
       <c r="I158">
         <v>1.497806385546245</v>
       </c>
       <c r="J158">
-        <v>1.510448417162488</v>
+        <v>1.568696418954906</v>
       </c>
       <c r="K158">
         <v>628.1860119047619</v>
@@ -7279,22 +7279,22 @@
         <v>160.4684821428548</v>
       </c>
       <c r="E159">
-        <v>142.6577975046331</v>
+        <v>171.4046788265773</v>
       </c>
       <c r="F159">
-        <v>17.81068463822174</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>-63.37786448638813</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>1.124849008955457</v>
+        <v>0.9361966268447814</v>
       </c>
       <c r="I159">
         <v>1.576456288197636</v>
       </c>
       <c r="J159">
-        <v>1.530794171826756</v>
+        <v>1.58116452275628</v>
       </c>
       <c r="K159">
         <v>628.1071428571429</v>
@@ -7320,22 +7320,22 @@
         <v>113.8712083333355</v>
       </c>
       <c r="E160">
-        <v>138.9542196082487</v>
+        <v>169.2814436478293</v>
       </c>
       <c r="F160">
-        <v>-25.08301127491319</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>-88.46087576130132</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>0.8194872286309167</v>
+        <v>0.6726738966748862</v>
       </c>
       <c r="I160">
         <v>1.493165731010845</v>
       </c>
       <c r="J160">
-        <v>1.51984496329262</v>
+        <v>1.573310951893503</v>
       </c>
       <c r="K160">
         <v>627.7113095238095</v>
@@ -7361,22 +7361,22 @@
         <v>167.5319523809511</v>
       </c>
       <c r="E161">
-        <v>145.297192616804</v>
+        <v>172.8463606374087</v>
       </c>
       <c r="F161">
-        <v>22.23475976414704</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>-66.22611599715428</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>1.153029520830367</v>
+        <v>0.9692535715715418</v>
       </c>
       <c r="I161">
         <v>1.566231126569151</v>
       </c>
       <c r="J161">
-        <v>1.53235678933468</v>
+        <v>1.580398725711553</v>
       </c>
       <c r="K161">
         <v>628.96875</v>
@@ -7402,22 +7402,22 @@
         <v>167.4600654761917</v>
       </c>
       <c r="E162">
-        <v>161.6460216480483</v>
+        <v>182.1711722550961</v>
       </c>
       <c r="F162">
-        <v>5.814043828143383</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>-60.4120721690109</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>1.035967750822858</v>
+        <v>0.91924569295572</v>
       </c>
       <c r="I162">
         <v>1.565487255216931</v>
       </c>
       <c r="J162">
-        <v>1.553147747946411</v>
+        <v>1.587563738489962</v>
       </c>
       <c r="K162">
         <v>631.1041666666666</v>
@@ -7443,22 +7443,22 @@
         <v>195.6746369047656</v>
       </c>
       <c r="E163">
-        <v>170.7357183111038</v>
+        <v>187.1999770549628</v>
       </c>
       <c r="F163">
-        <v>24.93891859366181</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>-35.47315357534909</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>1.146067377349944</v>
+        <v>1.045270624404588</v>
       </c>
       <c r="I163">
         <v>1.617896971742805</v>
       </c>
       <c r="J163">
-        <v>1.570272825698438</v>
+        <v>1.597304383684783</v>
       </c>
       <c r="K163">
         <v>633.5535714285714</v>
@@ -7484,22 +7484,22 @@
         <v>181.4530178571419</v>
       </c>
       <c r="E164">
-        <v>168.8852084618581</v>
+        <v>185.5430678647893</v>
       </c>
       <c r="F164">
-        <v>12.56780939528386</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>-22.90534418006523</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>1.074416282572918</v>
+        <v>0.9779563308146444</v>
       </c>
       <c r="I164">
         <v>1.591508463478796</v>
       </c>
       <c r="J164">
-        <v>1.563539123721077</v>
+        <v>1.592786677162983</v>
       </c>
       <c r="K164">
         <v>638.1889880952381</v>
@@ -7525,22 +7525,22 @@
         <v>195.983363095233</v>
       </c>
       <c r="E165">
-        <v>196.3214638482548</v>
+        <v>201.4066922453468</v>
       </c>
       <c r="F165">
-        <v>-0.3381007530217914</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>-23.24344493308702</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>0.9982778207415817</v>
+        <v>0.9730727460460582</v>
       </c>
       <c r="I165">
         <v>1.620212835005963</v>
       </c>
       <c r="J165">
-        <v>1.607078052913528</v>
+        <v>1.613635091827801</v>
       </c>
       <c r="K165">
         <v>640.0297619047619</v>
@@ -7566,22 +7566,22 @@
         <v>209.4956785714326</v>
       </c>
       <c r="E166">
-        <v>195.5849373848934</v>
+        <v>200.9420744105766</v>
       </c>
       <c r="F166">
-        <v>13.91074118653924</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>-9.332703746547779</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>1.071123785770702</v>
+        <v>1.042567511985463</v>
       </c>
       <c r="I166">
         <v>1.637046408519591</v>
       </c>
       <c r="J166">
-        <v>1.610421998053636</v>
+        <v>1.61763740473441</v>
       </c>
       <c r="K166">
         <v>640.2946428571429</v>
@@ -7607,22 +7607,22 @@
         <v>212.3479047619039</v>
       </c>
       <c r="E167">
-        <v>202.7820123409078</v>
+        <v>204.670974165369</v>
       </c>
       <c r="F167">
-        <v>9.565892420996164</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>0.2331886744483853</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>1.047173278884887</v>
+        <v>1.037508643459781</v>
       </c>
       <c r="I167">
         <v>1.611093541154507</v>
       </c>
       <c r="J167">
-        <v>1.616965165481657</v>
+        <v>1.618871294885202</v>
       </c>
       <c r="K167">
         <v>644.2842261904761</v>
@@ -7648,22 +7648,22 @@
         <v>193.9995119047623</v>
       </c>
       <c r="E168">
-        <v>183.5953150688725</v>
+        <v>193.1990132156732</v>
       </c>
       <c r="F168">
-        <v>10.40419683588979</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>10.63738551033818</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>1.056669184788222</v>
+        <v>1.004143389118636</v>
       </c>
       <c r="I168">
         <v>1.593152956465952</v>
       </c>
       <c r="J168">
-        <v>1.58505151679362</v>
+        <v>1.603190963017028</v>
       </c>
       <c r="K168">
         <v>646.0639880952381</v>
@@ -7689,22 +7689,22 @@
         <v>226.0198749999954</v>
       </c>
       <c r="E169">
-        <v>236.026353891894</v>
+        <v>223.4709149355226</v>
       </c>
       <c r="F169">
-        <v>-10.00647889189861</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>0.6309066184395675</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>0.9576043999879699</v>
+        <v>1.01140622736166</v>
       </c>
       <c r="I169">
         <v>1.634257502936944</v>
       </c>
       <c r="J169">
-        <v>1.661964465943373</v>
+        <v>1.637397798812191</v>
       </c>
       <c r="K169">
         <v>649.9360119047619</v>
@@ -7730,22 +7730,22 @@
         <v>178.5944523809539</v>
       </c>
       <c r="E170">
-        <v>176.7148812332186</v>
+        <v>189.0208690103493</v>
       </c>
       <c r="F170">
-        <v>1.879571147735305</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>2.510477766174873</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>1.010636179220553</v>
+        <v>0.9448398651218531</v>
       </c>
       <c r="I170">
         <v>1.574362506979673</v>
       </c>
       <c r="J170">
-        <v>1.566479585953359</v>
+        <v>1.590348319032341</v>
       </c>
       <c r="K170">
         <v>647.2232142857143</v>
@@ -7771,22 +7771,22 @@
         <v>175.6919404761921</v>
       </c>
       <c r="E171">
-        <v>168.2007668736915</v>
+        <v>184.0501414398289</v>
       </c>
       <c r="F171">
-        <v>7.491173602500623</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>10.0016513686755</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>1.04453709541126</v>
+        <v>0.9545873700598632</v>
       </c>
       <c r="I171">
         <v>1.565328450188139</v>
       </c>
       <c r="J171">
-        <v>1.552204923461107</v>
+        <v>1.582957201347841</v>
       </c>
       <c r="K171">
         <v>647.0401785714286</v>
@@ -7812,22 +7812,22 @@
         <v>231.9813988095238</v>
       </c>
       <c r="E172">
-        <v>246.8854947094483</v>
+        <v>229.9123629315474</v>
       </c>
       <c r="F172">
-        <v>-14.90409589992453</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>-4.902444531249031</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>0.9396315449092516</v>
+        <v>1.008999237151038</v>
       </c>
       <c r="I172">
         <v>1.649097685745922</v>
       </c>
       <c r="J172">
-        <v>1.677908955317066</v>
+        <v>1.644517696299107</v>
       </c>
       <c r="K172">
         <v>649.3452380952381</v>
@@ -7853,22 +7853,22 @@
         <v>215.77280357143</v>
       </c>
       <c r="E173">
-        <v>223.7312561890536</v>
+        <v>216.4025744933187</v>
       </c>
       <c r="F173">
-        <v>-7.958452617623635</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>-12.86089714887267</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>0.9644285168143931</v>
+        <v>0.9970898177927724</v>
       </c>
       <c r="I173">
         <v>1.628441658711434</v>
       </c>
       <c r="J173">
-        <v>1.639410385318714</v>
+        <v>1.624930982670052</v>
       </c>
       <c r="K173">
         <v>648.78125</v>
@@ -7894,22 +7894,22 @@
         <v>215.7847738095249</v>
       </c>
       <c r="E174">
-        <v>231.2453653461513</v>
+        <v>220.7754482323332</v>
       </c>
       <c r="F174">
-        <v>-15.46059153662642</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>-28.32148868549909</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>0.9331420479996065</v>
+        <v>0.9773947942909107</v>
       </c>
       <c r="I174">
         <v>1.628550463132156</v>
       </c>
       <c r="J174">
-        <v>1.653957171577679</v>
+        <v>1.633388029729878</v>
       </c>
       <c r="K174">
         <v>649.0565476190476</v>
@@ -7935,22 +7935,22 @@
         <v>176.4372916666658</v>
       </c>
       <c r="E175">
-        <v>163.7070511314076</v>
+        <v>181.1223658192544</v>
       </c>
       <c r="F175">
-        <v>12.73024053525819</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>-15.5912481502409</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>1.077762322681139</v>
+        <v>0.9741330998444226</v>
       </c>
       <c r="I175">
         <v>1.570723039668468</v>
       </c>
       <c r="J175">
-        <v>1.543560037094981</v>
+        <v>1.578146426535229</v>
       </c>
       <c r="K175">
         <v>649.4107142857143</v>
@@ -7976,22 +7976,22 @@
         <v>212.4626845238076</v>
       </c>
       <c r="E176">
-        <v>225.915428287497</v>
+        <v>217.6512349242639</v>
       </c>
       <c r="F176">
-        <v>-13.45274376368943</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>-29.04399191393033</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>0.9404523017057089</v>
+        <v>0.9761611717835568</v>
       </c>
       <c r="I176">
         <v>0.1873026997491127</v>
       </c>
       <c r="J176">
-        <v>0.1896445440704983</v>
+        <v>0.1877810225769665</v>
       </c>
       <c r="K176">
         <v>649.0431547619048</v>
@@ -8017,22 +8017,22 @@
         <v>215.0686845238116</v>
       </c>
       <c r="E177">
-        <v>196.2248480919111</v>
+        <v>200.3937570393954</v>
       </c>
       <c r="F177">
-        <v>18.84383643190046</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>-10.20015548202987</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>1.096031856388922</v>
+        <v>1.073230462371795</v>
       </c>
       <c r="I177">
         <v>1.47109006975278</v>
       </c>
       <c r="J177">
-        <v>1.440832300225289</v>
+        <v>1.447874294946918</v>
       </c>
       <c r="K177">
         <v>647.7842261904761</v>
@@ -8058,22 +8058,22 @@
         <v>171.4217142857129</v>
       </c>
       <c r="E178">
-        <v>169.6362062292035</v>
+        <v>185.5601494028323</v>
       </c>
       <c r="F178">
-        <v>1.7855080565094</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>-8.414647425520471</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>1.01052551277937</v>
+        <v>0.9238067270229108</v>
       </c>
       <c r="I178">
         <v>1.418306737021328</v>
       </c>
       <c r="J178">
-        <v>1.40337607084799</v>
+        <v>1.429046405964002</v>
       </c>
       <c r="K178">
         <v>641.6220238095239</v>
@@ -8099,22 +8099,22 @@
         <v>193.5928869047618</v>
       </c>
       <c r="E179">
-        <v>178.2113452506039</v>
+        <v>190.8690914266046</v>
       </c>
       <c r="F179">
-        <v>15.38154165415787</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>6.9668942286374</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>1.086310675858083</v>
+        <v>1.014270490092444</v>
       </c>
       <c r="I179">
         <v>1.448484773894009</v>
       </c>
       <c r="J179">
-        <v>1.416260524023409</v>
+        <v>1.435274694264375</v>
       </c>
       <c r="K179">
         <v>639.3526785714286</v>
@@ -8140,22 +8140,22 @@
         <v>210.3726785714306</v>
       </c>
       <c r="E180">
-        <v>215.5832622734894</v>
+        <v>213.1724556493826</v>
       </c>
       <c r="F180">
-        <v>-5.210583702058869</v>
+        <v>-2.799777077952086</v>
       </c>
       <c r="G180">
-        <v>1.756310526578531</v>
+        <v>-2.799777077952086</v>
       </c>
       <c r="H180">
-        <v>0.9758302956959214</v>
+        <v>0.9868661405179051</v>
       </c>
       <c r="I180">
         <v>1.469896962883627</v>
       </c>
       <c r="J180">
-        <v>1.476402431964491</v>
+        <v>1.467394126512646</v>
       </c>
       <c r="K180">
         <v>636.2247023809524</v>
@@ -8181,22 +8181,22 @@
         <v>210.6614345238084</v>
       </c>
       <c r="E181">
-        <v>211.4124986892124</v>
+        <v>210.3505855646749</v>
       </c>
       <c r="F181">
-        <v>-0.7510641654040455</v>
+        <v>0.3108489591335228</v>
       </c>
       <c r="G181">
-        <v>1.005246361174486</v>
+        <v>-2.488928118818563</v>
       </c>
       <c r="H181">
-        <v>0.9964473994202767</v>
+        <v>1.001477766074666</v>
       </c>
       <c r="I181">
         <v>1.471019616096082</v>
       </c>
       <c r="J181">
-        <v>1.465337355541965</v>
+        <v>1.459898783280458</v>
       </c>
       <c r="K181">
         <v>639.2723214285714</v>
@@ -8222,22 +8222,22 @@
         <v>210.4795773809532</v>
       </c>
       <c r="E182">
-        <v>194.8184772387172</v>
+        <v>200.3185982720061</v>
       </c>
       <c r="F182">
-        <v>15.66110014223594</v>
+        <v>10.16097910894703</v>
       </c>
       <c r="G182">
-        <v>16.66634650341042</v>
+        <v>7.672050990128469</v>
       </c>
       <c r="H182">
-        <v>1.080388166277708</v>
+        <v>1.050724092503631</v>
       </c>
       <c r="I182">
         <v>1.472322448399733</v>
       </c>
       <c r="J182">
-        <v>1.439062788952305</v>
+        <v>1.446178178727229</v>
       </c>
       <c r="K182">
         <v>641.7053571428571</v>
@@ -8263,22 +8263,22 @@
         <v>197.5493452380955</v>
       </c>
       <c r="E183">
-        <v>181.2176107771905</v>
+        <v>192.3244384678703</v>
       </c>
       <c r="F183">
-        <v>16.33173446090495</v>
+        <v>5.224906770225147</v>
       </c>
       <c r="G183">
-        <v>32.99808096431538</v>
+        <v>12.89695776035362</v>
       </c>
       <c r="H183">
-        <v>1.090122225929714</v>
+        <v>1.027167149488899</v>
       </c>
       <c r="I183">
         <v>1.456163578559907</v>
       </c>
       <c r="J183">
-        <v>1.41866497295174</v>
+        <v>1.435728310487115</v>
       </c>
       <c r="K183">
         <v>641.8482142857143</v>
@@ -8304,22 +8304,22 @@
         <v>209.2885297619006</v>
       </c>
       <c r="E184">
-        <v>205.3814088351326</v>
+        <v>206.4184155071705</v>
       </c>
       <c r="F184">
-        <v>3.907120926768044</v>
+        <v>2.87011425473014</v>
       </c>
       <c r="G184">
-        <v>36.90520189108342</v>
+        <v>15.76707201508376</v>
       </c>
       <c r="H184">
-        <v>1.019023732230333</v>
+        <v>1.01390435173954</v>
       </c>
       <c r="I184">
         <v>1.473072588488984</v>
       </c>
       <c r="J184">
-        <v>1.451173033101619</v>
+        <v>1.450674184366834</v>
       </c>
       <c r="K184">
         <v>642.4761904761905</v>
@@ -8345,22 +8345,22 @@
         <v>207.9957976190518</v>
       </c>
       <c r="E185">
-        <v>211.4744073002726</v>
+        <v>209.8620535766443</v>
       </c>
       <c r="F185">
-        <v>-3.478609681220831</v>
+        <v>-1.866255957592585</v>
       </c>
       <c r="G185">
-        <v>33.42659220986259</v>
+        <v>13.90081605749117</v>
       </c>
       <c r="H185">
-        <v>0.9835506824412963</v>
+        <v>0.9911072253140275</v>
       </c>
       <c r="I185">
         <v>1.472326702165351</v>
       </c>
       <c r="J185">
-        <v>1.458104521196165</v>
+        <v>1.453342332792212</v>
       </c>
       <c r="K185">
         <v>643.5282738095239</v>
@@ -8386,22 +8386,22 @@
         <v>219.1645416666676</v>
       </c>
       <c r="E186">
-        <v>217.0690384322446</v>
+        <v>212.9913913461266</v>
       </c>
       <c r="F186">
-        <v>2.095503234423035</v>
+        <v>6.173150320541026</v>
       </c>
       <c r="G186">
-        <v>35.52209544428563</v>
+        <v>20.0739663780322</v>
       </c>
       <c r="H186">
-        <v>1.009653625637067</v>
+        <v>1.028983097774638</v>
       </c>
       <c r="I186">
         <v>1.489925053143031</v>
       </c>
       <c r="J186">
-        <v>1.468534926406103</v>
+        <v>1.459910008462773</v>
       </c>
       <c r="K186">
         <v>644.7589285714286</v>
@@ -8427,22 +8427,22 @@
         <v>215.9215595238077</v>
       </c>
       <c r="E187">
-        <v>220.4309481955612</v>
+        <v>214.6107211526054</v>
       </c>
       <c r="F187">
-        <v>-4.509388671753527</v>
+        <v>1.310838371202323</v>
       </c>
       <c r="G187">
-        <v>31.0127067725321</v>
+        <v>21.38480474923452</v>
       </c>
       <c r="H187">
-        <v>0.9795428513615388</v>
+        <v>1.006107981764202</v>
       </c>
       <c r="I187">
         <v>1.483589215446436</v>
       </c>
       <c r="J187">
-        <v>1.468810925050417</v>
+        <v>1.458221003372777</v>
       </c>
       <c r="K187">
         <v>647.6160714285714</v>
@@ -8468,22 +8468,22 @@
         <v>223.5497261904723</v>
       </c>
       <c r="E188">
-        <v>223.7365075264332</v>
+        <v>215.941372966157</v>
       </c>
       <c r="F188">
-        <v>-0.1867813359608306</v>
+        <v>7.608353224315323</v>
       </c>
       <c r="G188">
-        <v>30.82592543657127</v>
+        <v>28.99315797354984</v>
       </c>
       <c r="H188">
-        <v>0.9991651727381202</v>
+        <v>1.035233420626198</v>
       </c>
       <c r="I188">
         <v>1.482187563629335</v>
       </c>
       <c r="J188">
-        <v>1.469918019883661</v>
+        <v>1.457751732387844</v>
       </c>
       <c r="K188">
         <v>652.546130952381</v>
@@ -8509,22 +8509,22 @@
         <v>218.386851190484</v>
       </c>
       <c r="E189">
-        <v>186.7837170206166</v>
+        <v>194.671441794982</v>
       </c>
       <c r="F189">
-        <v>31.60313416986742</v>
+        <v>23.71540939550204</v>
       </c>
       <c r="G189">
-        <v>62.42905960643868</v>
+        <v>52.70856736905188</v>
       </c>
       <c r="H189">
-        <v>1.169196408948105</v>
+        <v>1.121822744912312</v>
       </c>
       <c r="I189">
         <v>1.473786175248547</v>
       </c>
       <c r="J189">
-        <v>1.418329441282336</v>
+        <v>1.432190698183436</v>
       </c>
       <c r="K189">
         <v>649.2872023809524</v>
@@ -8550,22 +8550,22 @@
         <v>203.0067999999039</v>
       </c>
       <c r="E190">
-        <v>132.8815037026608</v>
+        <v>165.1972479017419</v>
       </c>
       <c r="F190">
-        <v>70.12529629724312</v>
+        <v>37.80955209816193</v>
       </c>
       <c r="G190">
-        <v>132.5543559036818</v>
+        <v>90.51811946721381</v>
       </c>
       <c r="H190">
-        <v>1.527728045990188</v>
+        <v>1.228875193614913</v>
       </c>
       <c r="I190">
         <v>1.445091805202321</v>
       </c>
       <c r="J190">
-        <v>1.347523544612386</v>
+        <v>1.397778113749093</v>
       </c>
       <c r="K190">
         <v>631.95</v>
@@ -8588,7 +8588,7 @@
         <v>187.7681830985977</v>
       </c>
       <c r="E191">
-        <v>327.5377608971205</v>
+        <v>296.5336389111667</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -8597,13 +8597,13 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0.5732718651562608</v>
+        <v>0.6332103965946604</v>
       </c>
       <c r="I191">
         <v>1.630455377278746</v>
       </c>
       <c r="J191">
-        <v>1.842183407604939</v>
+        <v>1.798126280469262</v>
       </c>
       <c r="K191">
         <v>380.8472711267606</v>
@@ -8629,7 +8629,7 @@
         <v>216.4063273809512</v>
       </c>
       <c r="E192">
-        <v>298.2339920638302</v>
+        <v>283.4417405287789</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -8638,13 +8638,13 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>0.7256259619615539</v>
+        <v>0.7634949142537413</v>
       </c>
       <c r="I192">
         <v>1.649540974392558</v>
       </c>
       <c r="J192">
-        <v>1.777047275591976</v>
+        <v>1.756975186219274</v>
       </c>
       <c r="K192">
         <v>388.6731770833333</v>
@@ -8670,7 +8670,7 @@
         <v>197.9035357142843</v>
       </c>
       <c r="E193">
-        <v>302.6269801921885</v>
+        <v>285.4043738848736</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -8679,13 +8679,13 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>0.6539520553937467</v>
+        <v>0.6934145157639197</v>
       </c>
       <c r="I193">
         <v>1.639706442919475</v>
       </c>
       <c r="J193">
-        <v>-7.102559283548662</v>
+        <v>-7.126066821416256</v>
       </c>
       <c r="K193">
         <v>390.7103794642857</v>
@@ -8711,7 +8711,7 @@
         <v>215.1010476190492</v>
       </c>
       <c r="E194">
-        <v>335.2420269214802</v>
+        <v>299.9756353477211</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -8720,13 +8720,13 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>0.6416291226798654</v>
+        <v>0.717061728595763</v>
       </c>
       <c r="I194">
         <v>1.661933474682215</v>
       </c>
       <c r="J194">
-        <v>1.778155098556331</v>
+        <v>1.7289271498201</v>
       </c>
       <c r="K194">
         <v>395.84765625</v>
@@ -8752,7 +8752,7 @@
         <v>201.5097797619057</v>
       </c>
       <c r="E195">
-        <v>220.9376318711047</v>
+        <v>248.9084319046001</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -8761,13 +8761,13 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>0.912066351283546</v>
+        <v>0.8095739393800006</v>
       </c>
       <c r="I195">
         <v>1.627674989385667</v>
       </c>
       <c r="J195">
-        <v>1.599968928170657</v>
+        <v>1.640697729465369</v>
       </c>
       <c r="K195">
         <v>405.3426339285714</v>
@@ -8793,7 +8793,7 @@
         <v>173.8728869047606</v>
       </c>
       <c r="E196">
-        <v>231.0350017878493</v>
+        <v>253.4195834097683</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -8802,13 +8802,13 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>0.7525824466390661</v>
+        <v>0.6861067505726889</v>
       </c>
       <c r="I196">
         <v>1.600643828857363</v>
       </c>
       <c r="J196">
-        <v>1.612976351065534</v>
+        <v>1.645602865157139</v>
       </c>
       <c r="K196">
         <v>412.805431547619</v>
@@ -8834,7 +8834,7 @@
         <v>204.9484583333334</v>
       </c>
       <c r="E197">
-        <v>284.1627019651825</v>
+        <v>277.1551805600382</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -8843,13 +8843,13 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>0.7212363090439825</v>
+        <v>0.7394718652532526</v>
       </c>
       <c r="I197">
         <v>1.640151168630854</v>
       </c>
       <c r="J197">
-        <v>1.693883399055898</v>
+        <v>1.685075409975778</v>
       </c>
       <c r="K197">
         <v>416.733630952381</v>
@@ -8875,7 +8875,7 @@
         <v>205.5299345238087</v>
       </c>
       <c r="E198">
-        <v>312.9049828444741</v>
+        <v>289.9962257747496</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -8884,13 +8884,13 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>0.6568445559908678</v>
+        <v>0.7087331360079532</v>
       </c>
       <c r="I198">
         <v>1.63467942927441</v>
       </c>
       <c r="J198">
-        <v>1.718240714970875</v>
+        <v>1.687721242600905</v>
       </c>
       <c r="K198">
         <v>420.8645833333333</v>
@@ -8916,7 +8916,7 @@
         <v>193.8488928571432</v>
       </c>
       <c r="E199">
-        <v>256.9955385398088</v>
+        <v>265.017842699979</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -8925,13 +8925,13 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>0.7542889419736596</v>
+        <v>0.7314560064417825</v>
       </c>
       <c r="I199">
         <v>1.604125269309702</v>
       </c>
       <c r="J199">
-        <v>1.634171862026393</v>
+        <v>1.646079274441423</v>
       </c>
       <c r="K199">
         <v>422.4408482142857</v>
@@ -8957,7 +8957,7 @@
         <v>234.0861071428572</v>
       </c>
       <c r="E200">
-        <v>272.8189661732046</v>
+        <v>272.0871964003858</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -8966,13 +8966,13 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>0.8580272494480569</v>
+        <v>0.8603348861678567</v>
       </c>
       <c r="I200">
         <v>1.623809611880125</v>
       </c>
       <c r="J200">
-        <v>1.64478855106587</v>
+        <v>1.644822077707075</v>
       </c>
       <c r="K200">
         <v>426.8950892857143</v>
@@ -8998,7 +8998,7 @@
         <v>252.4739047619043</v>
       </c>
       <c r="E201">
-        <v>335.5202013342134</v>
+        <v>300.0999139401712</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -9007,13 +9007,13 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>0.7524849584553441</v>
+        <v>0.8412994907164094</v>
       </c>
       <c r="I201">
         <v>1.657980874301686</v>
       </c>
       <c r="J201">
-        <v>1.734936492832614</v>
+        <v>1.688593776679817</v>
       </c>
       <c r="K201">
         <v>430.0275297619048</v>
@@ -9039,7 +9039,7 @@
         <v>243.8541488095264</v>
       </c>
       <c r="E202">
-        <v>261.2404078250234</v>
+        <v>266.9143017406133</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -9048,13 +9048,13 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>0.933447282676338</v>
+        <v>0.9136046559487223</v>
       </c>
       <c r="I202">
         <v>1.632826007778472</v>
       </c>
       <c r="J202">
-        <v>1.62798512763677</v>
+        <v>1.636570418025435</v>
       </c>
       <c r="K202">
         <v>433.7991071428572</v>
@@ -9080,7 +9080,7 @@
         <v>212.6488273809525</v>
       </c>
       <c r="E203">
-        <v>218.4918646318789</v>
+        <v>247.8157486956559</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -9089,13 +9089,13 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>0.9732574150494306</v>
+        <v>0.8580924678927807</v>
       </c>
       <c r="I203">
         <v>1.584854299015789</v>
       </c>
       <c r="J203">
-        <v>1.566203012337188</v>
+        <v>1.606273837613394</v>
       </c>
       <c r="K203">
         <v>437.4906994047619</v>
@@ -9121,7 +9121,7 @@
         <v>210.7441309523807</v>
       </c>
       <c r="E204">
-        <v>238.7949841066927</v>
+        <v>256.8864719368171</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -9130,13 +9130,13 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>0.8825316483960193</v>
+        <v>0.820378470549491</v>
       </c>
       <c r="I204">
         <v>1.60770588006845</v>
       </c>
       <c r="J204">
-        <v>1.597973195617145</v>
+        <v>1.623014085530205</v>
       </c>
       <c r="K204">
         <v>442.7715773809524</v>
@@ -9162,7 +9162,7 @@
         <v>221.6514226190463</v>
       </c>
       <c r="E205">
-        <v>258.5814939578592</v>
+        <v>265.7263920777139</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -9171,13 +9171,13 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>0.8571820791443362</v>
+        <v>0.8341340161432761</v>
       </c>
       <c r="I205">
         <v>1.625766156821475</v>
       </c>
       <c r="J205">
-        <v>1.625523368041201</v>
+        <v>1.636004451897686</v>
       </c>
       <c r="K205">
         <v>445.0200892857143</v>
@@ -9203,7 +9203,7 @@
         <v>230.0600059523824</v>
       </c>
       <c r="E206">
-        <v>274.1122965596786</v>
+        <v>272.6650111548939</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -9212,13 +9212,13 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>0.8392910819390939</v>
+        <v>0.8437459759796289</v>
       </c>
       <c r="I206">
         <v>1.618511144185805</v>
       </c>
       <c r="J206">
-        <v>1.646008332446574</v>
+        <v>1.645092844596882</v>
       </c>
       <c r="K206">
         <v>448.3541666666667</v>
@@ -9244,7 +9244,7 @@
         <v>198.4905535714268</v>
       </c>
       <c r="E207">
-        <v>213.1957128258153</v>
+        <v>245.4496134160221</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -9253,13 +9253,13 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>0.9310250705350587</v>
+        <v>0.8086814674871682</v>
       </c>
       <c r="I207">
         <v>1.578775846212964</v>
       </c>
       <c r="J207">
-        <v>1.562850805803545</v>
+        <v>1.60644599713876</v>
       </c>
       <c r="K207">
         <v>452.5186011904762</v>
@@ -9285,7 +9285,7 @@
         <v>206.3759583333352</v>
       </c>
       <c r="E208">
-        <v>226.985215857019</v>
+        <v>251.6102807846185</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -9294,13 +9294,13 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>0.9092044059086835</v>
+        <v>0.8202206908627694</v>
       </c>
       <c r="I208">
         <v>1.576359870485145</v>
       </c>
       <c r="J208">
-        <v>1.582390317453739</v>
+        <v>1.615794736053819</v>
       </c>
       <c r="K208">
         <v>461.4494047619048</v>
@@ -9326,7 +9326,7 @@
         <v>202.2618571428549</v>
       </c>
       <c r="E209">
-        <v>197.6071077486228</v>
+        <v>238.4851702157355</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -9335,13 +9335,13 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>1.023555576756649</v>
+        <v>0.8481108362414623</v>
       </c>
       <c r="I209">
         <v>1.55509345412709</v>
       </c>
       <c r="J209">
-        <v>1.542255928612898</v>
+        <v>1.596924899410509</v>
       </c>
       <c r="K209">
         <v>465.5491071428572</v>
@@ -9367,7 +9367,7 @@
         <v>237.9014523809532</v>
       </c>
       <c r="E210">
-        <v>211.3532589232966</v>
+        <v>244.6264694920021</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -9376,13 +9376,13 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>1.125610523314861</v>
+        <v>0.9725090374520212</v>
       </c>
       <c r="I210">
         <v>1.607952689537264</v>
       </c>
       <c r="J210">
-        <v>1.559042998609737</v>
+        <v>1.603629385705111</v>
       </c>
       <c r="K210">
         <v>467.8668154761905</v>
@@ -9408,7 +9408,7 @@
         <v>191.2240178571415</v>
       </c>
       <c r="E211">
-        <v>195.0565735227832</v>
+        <v>237.3456807836608</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -9417,13 +9417,13 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>0.9803515687965572</v>
+        <v>0.8056772603814143</v>
       </c>
       <c r="I211">
         <v>1.533161701999339</v>
       </c>
       <c r="J211">
-        <v>1.534063413052274</v>
+        <v>1.590380948838082</v>
       </c>
       <c r="K211">
         <v>469.7135416666667</v>
@@ -9449,7 +9449,7 @@
         <v>198.0153333333326</v>
       </c>
       <c r="E212">
-        <v>190.7250005245089</v>
+        <v>235.4104855583668</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -9458,13 +9458,13 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>1.038224316627473</v>
+        <v>0.8411491648881437</v>
       </c>
       <c r="I212">
         <v>1.554797450300363</v>
       </c>
       <c r="J212">
-        <v>1.530921628444432</v>
+        <v>1.590358533131832</v>
       </c>
       <c r="K212">
         <v>472.0178571428572</v>
@@ -9490,22 +9490,22 @@
         <v>131.2152142857168</v>
       </c>
       <c r="E213">
-        <v>186.6174121183054</v>
+        <v>233.5753588101105</v>
       </c>
       <c r="F213">
-        <v>-55.4021978325886</v>
+        <v>0</v>
       </c>
       <c r="G213">
-        <v>-55.4021978325886</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>0.7031241768722708</v>
+        <v>0.5617682231300379</v>
       </c>
       <c r="I213">
         <v>1.436351797638831</v>
       </c>
       <c r="J213">
-        <v>1.510225099917864</v>
+        <v>1.572461598668177</v>
       </c>
       <c r="K213">
         <v>475.2708333333333</v>
@@ -9531,22 +9531,22 @@
         <v>173.7786666666673</v>
       </c>
       <c r="E214">
-        <v>187.3905202264211</v>
+        <v>233.9207564566601</v>
       </c>
       <c r="F214">
-        <v>-13.6118535597538</v>
+        <v>0</v>
       </c>
       <c r="G214">
-        <v>-69.0140513923424</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>0.9273610343612537</v>
+        <v>0.7428954544222516</v>
       </c>
       <c r="I214">
         <v>1.493740588445003</v>
       </c>
       <c r="J214">
-        <v>1.520629122174469</v>
+        <v>1.582138539730656</v>
       </c>
       <c r="K214">
         <v>477.3177083333333</v>
@@ -9572,22 +9572,22 @@
         <v>196.8122499999978</v>
       </c>
       <c r="E215">
-        <v>188.8789339672794</v>
+        <v>234.5857276266526</v>
       </c>
       <c r="F215">
-        <v>7.933316032718466</v>
+        <v>0</v>
       </c>
       <c r="G215">
-        <v>-61.08073535962393</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>1.042002122026445</v>
+        <v>0.8389779377935047</v>
       </c>
       <c r="I215">
         <v>1.540278310997046</v>
       </c>
       <c r="J215">
-        <v>1.524986694723918</v>
+        <v>1.585310891576881</v>
       </c>
       <c r="K215">
         <v>478.6741071428572</v>
@@ -9613,22 +9613,22 @@
         <v>189.3029880952367</v>
       </c>
       <c r="E216">
-        <v>189.3521917343969</v>
+        <v>234.7971626345872</v>
       </c>
       <c r="F216">
-        <v>-0.0492036391601971</v>
+        <v>0</v>
       </c>
       <c r="G216">
-        <v>-61.12993899878413</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>0.9997401475065617</v>
+        <v>0.8062405268067372</v>
       </c>
       <c r="I216">
         <v>1.527102612755731</v>
       </c>
       <c r="J216">
-        <v>1.526699734481327</v>
+        <v>1.586427086254488</v>
       </c>
       <c r="K216">
         <v>483.0349702380952</v>
@@ -9654,22 +9654,22 @@
         <v>222.0476428571468</v>
       </c>
       <c r="E217">
-        <v>194.9734824644343</v>
+        <v>237.3085586066952</v>
       </c>
       <c r="F217">
-        <v>27.07416039271243</v>
+        <v>0</v>
       </c>
       <c r="G217">
-        <v>-34.0557786060717</v>
+        <v>0</v>
       </c>
       <c r="H217">
-        <v>1.138860731472297</v>
+        <v>0.9356916756852366</v>
       </c>
       <c r="I217">
         <v>1.584452821548302</v>
       </c>
       <c r="J217">
-        <v>1.535166725826816</v>
+        <v>1.590518358802346</v>
       </c>
       <c r="K217">
         <v>492.3147321428572</v>
@@ -9695,22 +9695,22 @@
         <v>186.2386904761883</v>
       </c>
       <c r="E218">
-        <v>190.2011655914398</v>
+        <v>235.176454442714</v>
       </c>
       <c r="F218">
-        <v>-3.962475115251578</v>
+        <v>0</v>
       </c>
       <c r="G218">
-        <v>-38.01825372132328</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>0.9791669251714096</v>
+        <v>0.7919104440855222</v>
       </c>
       <c r="I218">
         <v>1.511543376216454</v>
       </c>
       <c r="J218">
-        <v>1.524499100613619</v>
+        <v>1.583020279596503</v>
       </c>
       <c r="K218">
         <v>501.235119047619</v>
@@ -9736,22 +9736,22 @@
         <v>135.7999999999994</v>
       </c>
       <c r="E219">
-        <v>186.5343210599565</v>
+        <v>233.5382366331449</v>
       </c>
       <c r="F219">
-        <v>-50.7343210599571</v>
+        <v>0</v>
       </c>
       <c r="G219">
-        <v>-88.75257478128037</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>0.7280161593230348</v>
+        <v>0.5814893610476377</v>
       </c>
       <c r="I219">
         <v>1.447453075097497</v>
       </c>
       <c r="J219">
-        <v>1.513007789353551</v>
+        <v>1.574194210558407</v>
       </c>
       <c r="K219">
         <v>504.500744047619</v>
@@ -9777,22 +9777,22 @@
         <v>133.0626428571441</v>
       </c>
       <c r="E220">
-        <v>186.5343210599565</v>
+        <v>233.5382366331449</v>
       </c>
       <c r="F220">
-        <v>-53.47167820281243</v>
+        <v>0</v>
       </c>
       <c r="G220">
-        <v>-142.2242529840928</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>0.7133413416953689</v>
+        <v>0.5697681235221728</v>
       </c>
       <c r="I220">
         <v>1.432074944501285</v>
       </c>
       <c r="J220">
-        <v>1.501176844171143</v>
+        <v>1.561313611555221</v>
       </c>
       <c r="K220">
         <v>510.1235119047619</v>
@@ -9818,22 +9818,22 @@
         <v>177.0385892857116</v>
       </c>
       <c r="E221">
-        <v>188.4454154019808</v>
+        <v>234.3920467033538</v>
       </c>
       <c r="F221">
-        <v>-11.40682611626926</v>
+        <v>0</v>
       </c>
       <c r="G221">
-        <v>-153.6310791003621</v>
+        <v>0</v>
       </c>
       <c r="H221">
-        <v>0.9394688053729676</v>
+        <v>0.7553097119791411</v>
       </c>
       <c r="I221">
         <v>1.497806385546245</v>
       </c>
       <c r="J221">
-        <v>1.510448417162488</v>
+        <v>1.568696418954906</v>
       </c>
       <c r="K221">
         <v>513.6294642857143</v>
@@ -9859,22 +9859,22 @@
         <v>218.9193988095254</v>
       </c>
       <c r="E222">
-        <v>199.6627082790799</v>
+        <v>239.4035405937107</v>
       </c>
       <c r="F222">
-        <v>19.25669053044544</v>
+        <v>0</v>
       </c>
       <c r="G222">
-        <v>-134.3743885699166</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>1.096446105015912</v>
+        <v>0.914436763410493</v>
       </c>
       <c r="I222">
         <v>1.576456288197636</v>
       </c>
       <c r="J222">
-        <v>1.530794171826756</v>
+        <v>1.58116452275628</v>
       </c>
       <c r="K222">
         <v>517.03125</v>
@@ -9900,22 +9900,22 @@
         <v>177.5553750000018</v>
       </c>
       <c r="E223">
-        <v>195.1721784735295</v>
+        <v>237.3973290298738</v>
       </c>
       <c r="F223">
-        <v>-17.61680347352765</v>
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>-151.9911920434443</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>0.9097371171889801</v>
+        <v>0.7479249060028744</v>
       </c>
       <c r="I223">
         <v>1.493165731010845</v>
       </c>
       <c r="J223">
-        <v>1.51984496329262</v>
+        <v>1.573310951893503</v>
       </c>
       <c r="K223">
         <v>519.5044642857143</v>
@@ -9941,22 +9941,22 @@
         <v>238.7247916666674</v>
       </c>
       <c r="E224">
-        <v>202.7117888550129</v>
+        <v>240.765763087579</v>
       </c>
       <c r="F224">
-        <v>36.01300281165459</v>
+        <v>0</v>
       </c>
       <c r="G224">
-        <v>-115.9781892317897</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>1.177656183762516</v>
+        <v>0.9915229998038834</v>
       </c>
       <c r="I224">
         <v>1.566231126569151</v>
       </c>
       <c r="J224">
-        <v>1.53235678933468</v>
+        <v>1.580398725711553</v>
       </c>
       <c r="K224">
         <v>528.5818452380952</v>
@@ -9982,22 +9982,22 @@
         <v>234.9895178571404</v>
       </c>
       <c r="E225">
-        <v>222.4332709213845</v>
+        <v>249.576631089981</v>
       </c>
       <c r="F225">
-        <v>12.55624693575592</v>
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>-103.4219422960338</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>1.056449500039919</v>
+        <v>0.9415525677659244</v>
       </c>
       <c r="I225">
         <v>1.565487255216931</v>
       </c>
       <c r="J225">
-        <v>1.553147747946411</v>
+        <v>1.587563738489962</v>
       </c>
       <c r="K225">
         <v>531.2157738095239</v>
@@ -10023,22 +10023,22 @@
         <v>256.9768571428611</v>
       </c>
       <c r="E226">
-        <v>233.0689263900415</v>
+        <v>254.3282697415786</v>
       </c>
       <c r="F226">
-        <v>23.9079307528196</v>
+        <v>0</v>
       </c>
       <c r="G226">
-        <v>-79.51401154321417</v>
+        <v>0</v>
       </c>
       <c r="H226">
-        <v>1.102578799856012</v>
+        <v>1.010414050329418</v>
       </c>
       <c r="I226">
         <v>1.617896971742805</v>
       </c>
       <c r="J226">
-        <v>1.570272825698438</v>
+        <v>1.597304383684783</v>
       </c>
       <c r="K226">
         <v>533.7752976190476</v>
@@ -10064,22 +10064,22 @@
         <v>272.025327380949</v>
       </c>
       <c r="E227">
-        <v>229.5646513205451</v>
+        <v>252.7626822782465</v>
       </c>
       <c r="F227">
-        <v>42.46067606040384</v>
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>-37.05333548281033</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>1.184961734379198</v>
+        <v>1.07620842178553</v>
       </c>
       <c r="I227">
         <v>1.591508463478796</v>
       </c>
       <c r="J227">
-        <v>1.563539123721077</v>
+        <v>1.592786677162983</v>
       </c>
       <c r="K227">
         <v>535.6785714285714</v>
@@ -10105,22 +10105,22 @@
         <v>287.8358869047647</v>
       </c>
       <c r="E228">
-        <v>263.1153756199395</v>
+        <v>267.7519717338807</v>
       </c>
       <c r="F228">
-        <v>24.72051128482519</v>
+        <v>0</v>
       </c>
       <c r="G228">
-        <v>-12.33282419798513</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>1.093953123136875</v>
+        <v>1.075009401577238</v>
       </c>
       <c r="I228">
         <v>1.620212835005963</v>
       </c>
       <c r="J228">
-        <v>1.607078052913528</v>
+        <v>1.613635091827801</v>
       </c>
       <c r="K228">
         <v>540.6651785714286</v>
@@ -10146,22 +10146,22 @@
         <v>262.6754642857122</v>
       </c>
       <c r="E229">
-        <v>262.1327335385962</v>
+        <v>267.31296164107</v>
       </c>
       <c r="F229">
-        <v>0.5427307471160248</v>
+        <v>0</v>
       </c>
       <c r="G229">
-        <v>-11.79009345086911</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>1.00207044248076</v>
+        <v>0.9826514310159612</v>
       </c>
       <c r="I229">
         <v>1.637046408519591</v>
       </c>
       <c r="J229">
-        <v>1.610421998053636</v>
+        <v>1.61763740473441</v>
       </c>
       <c r="K229">
         <v>544.9077380952381</v>
@@ -10187,22 +10187,22 @@
         <v>251.7261190476184</v>
       </c>
       <c r="E230">
-        <v>270.0191587723184</v>
+        <v>270.8363404374143</v>
       </c>
       <c r="F230">
-        <v>-18.29303972469998</v>
+        <v>0</v>
       </c>
       <c r="G230">
-        <v>-30.08313317556909</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>0.9322528082530441</v>
+        <v>0.9294399659996442</v>
       </c>
       <c r="I230">
         <v>1.611093541154507</v>
       </c>
       <c r="J230">
-        <v>1.616965165481657</v>
+        <v>1.618871294885202</v>
       </c>
       <c r="K230">
         <v>549.4166666666666</v>
@@ -10228,22 +10228,22 @@
         <v>246.4760535714311</v>
       </c>
       <c r="E231">
-        <v>245.7565697344447</v>
+        <v>259.9966647634573</v>
       </c>
       <c r="F231">
-        <v>0.7194838369863419</v>
+        <v>0</v>
       </c>
       <c r="G231">
-        <v>-29.36364933858275</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>1.002927628090528</v>
+        <v>0.9479969821754171</v>
       </c>
       <c r="I231">
         <v>1.593152956465952</v>
       </c>
       <c r="J231">
-        <v>1.58505151679362</v>
+        <v>1.603190963017028</v>
       </c>
       <c r="K231">
         <v>550.1547619047619</v>
@@ -10269,22 +10269,22 @@
         <v>284.1530833333326</v>
       </c>
       <c r="E232">
-        <v>309.780036519614</v>
+        <v>288.600109119304</v>
       </c>
       <c r="F232">
-        <v>-25.62695318628141</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>-54.99060252486416</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>0.9172737098419871</v>
+        <v>0.9845910460687557</v>
       </c>
       <c r="I232">
         <v>1.634257502936944</v>
       </c>
       <c r="J232">
-        <v>1.661964465943373</v>
+        <v>1.637397798812191</v>
       </c>
       <c r="K232">
         <v>555.297619047619</v>
@@ -10310,22 +10310,22 @@
         <v>242.3585476190451</v>
       </c>
       <c r="E233">
-        <v>236.9200163117766</v>
+        <v>256.0488019435497</v>
       </c>
       <c r="F233">
-        <v>5.43853130726842</v>
+        <v>0</v>
       </c>
       <c r="G233">
-        <v>-49.55207121759574</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>1.022955136471507</v>
+        <v>0.9465326366669627</v>
       </c>
       <c r="I233">
         <v>1.574362506979673</v>
       </c>
       <c r="J233">
-        <v>1.566479585953359</v>
+        <v>1.590348319032341</v>
       </c>
       <c r="K233">
         <v>554.6458333333334</v>
@@ -10351,22 +10351,22 @@
         <v>238.0100654761911</v>
       </c>
       <c r="E234">
-        <v>226.4071911032876</v>
+        <v>251.3520395535535</v>
       </c>
       <c r="F234">
-        <v>11.60287437290353</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>-37.94919684469221</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>1.05124781733461</v>
+        <v>0.9469191732000263</v>
       </c>
       <c r="I234">
         <v>1.565328450188139</v>
       </c>
       <c r="J234">
-        <v>1.552204923461107</v>
+        <v>1.582957201347841</v>
       </c>
       <c r="K234">
         <v>561.1220238095239</v>
@@ -10392,22 +10392,22 @@
         <v>299.134267857143</v>
       </c>
       <c r="E235">
-        <v>323.4033574341199</v>
+        <v>294.6865321339693</v>
       </c>
       <c r="F235">
-        <v>-24.26908957697685</v>
+        <v>0</v>
       </c>
       <c r="G235">
-        <v>-62.21828642166906</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>0.9249572120415581</v>
+        <v>1.01509310822916</v>
       </c>
       <c r="I235">
         <v>1.649097685745922</v>
       </c>
       <c r="J235">
-        <v>1.677908955317066</v>
+        <v>1.644517696299107</v>
       </c>
       <c r="K235">
         <v>563.8616071428571</v>
@@ -10433,22 +10433,22 @@
         <v>285.6080000000019</v>
       </c>
       <c r="E236">
-        <v>294.8308713262368</v>
+        <v>281.9213452808832</v>
       </c>
       <c r="F236">
-        <v>-9.222871326234895</v>
+        <v>0</v>
       </c>
       <c r="G236">
-        <v>-71.44115774790396</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>0.9687180949377937</v>
+        <v>1.013076891057843</v>
       </c>
       <c r="I236">
         <v>1.628441658711434</v>
       </c>
       <c r="J236">
-        <v>1.639410385318714</v>
+        <v>1.624930982670052</v>
       </c>
       <c r="K236">
         <v>563.2916666666666</v>
@@ -10474,22 +10474,22 @@
         <v>285.5854583333297</v>
       </c>
       <c r="E237">
-        <v>304.0792673859385</v>
+        <v>286.0532049779246</v>
       </c>
       <c r="F237">
-        <v>-18.49380905260881</v>
+        <v>0</v>
       </c>
       <c r="G237">
-        <v>-89.93496680051277</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>0.9391809602423949</v>
+        <v>0.9983648264153132</v>
       </c>
       <c r="I237">
         <v>1.628550463132156</v>
       </c>
       <c r="J237">
-        <v>1.653957171577679</v>
+        <v>1.633388029729878</v>
       </c>
       <c r="K237">
         <v>562.9151785714286</v>
@@ -10515,22 +10515,22 @@
         <v>248.4422023809526</v>
       </c>
       <c r="E238">
-        <v>220.2151009289404</v>
+        <v>248.5856303657687</v>
       </c>
       <c r="F238">
-        <v>28.22710145201216</v>
+        <v>0</v>
       </c>
       <c r="G238">
-        <v>-61.7078653485006</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>1.128179681288617</v>
+        <v>0.99942302383044</v>
       </c>
       <c r="I238">
         <v>1.570723039668468</v>
       </c>
       <c r="J238">
-        <v>1.543560037094981</v>
+        <v>1.578146426535229</v>
       </c>
       <c r="K238">
         <v>566.9136904761905</v>
@@ -10556,22 +10556,22 @@
         <v>293.1200952380979</v>
       </c>
       <c r="E239">
-        <v>297.4717219198469</v>
+        <v>283.1011849053118</v>
       </c>
       <c r="F239">
-        <v>-4.351626681749053</v>
+        <v>0</v>
       </c>
       <c r="G239">
-        <v>-66.05949203024966</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>0.9853712929294113</v>
+        <v>1.0353898565848</v>
       </c>
       <c r="I239">
         <v>0.1873026997491127</v>
       </c>
       <c r="J239">
-        <v>0.1896445440704983</v>
+        <v>0.1877810225769665</v>
       </c>
       <c r="K239">
         <v>22630.19642857143</v>
@@ -10597,22 +10597,22 @@
         <v>292.6489166666676</v>
       </c>
       <c r="E240">
-        <v>260.9730713764227</v>
+        <v>266.7948651712457</v>
       </c>
       <c r="F240">
-        <v>31.67584529024492</v>
+        <v>0</v>
       </c>
       <c r="G240">
-        <v>-34.38364674000474</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>1.121375914852748</v>
+        <v>1.096906106040786</v>
       </c>
       <c r="I240">
         <v>1.47109006975278</v>
       </c>
       <c r="J240">
-        <v>1.440832300225289</v>
+        <v>1.447874294946918</v>
       </c>
       <c r="K240">
         <v>883.0758928571429</v>
@@ -10638,22 +10638,22 @@
         <v>248.072886904757</v>
       </c>
       <c r="E241">
-        <v>229.6007778676533</v>
+        <v>252.7788223551881</v>
       </c>
       <c r="F241">
-        <v>18.47210903710368</v>
+        <v>0</v>
       </c>
       <c r="G241">
-        <v>-15.91153770290106</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>1.08045316400344</v>
+        <v>0.9813831894357884</v>
       </c>
       <c r="I241">
         <v>1.418306737021328</v>
       </c>
       <c r="J241">
-        <v>1.40337607084799</v>
+        <v>1.429046405964002</v>
       </c>
       <c r="K241">
         <v>887.1130952380952</v>
@@ -10679,22 +10679,22 @@
         <v>271.2282440476286</v>
       </c>
       <c r="E242">
-        <v>240.8289087088849</v>
+        <v>257.7951582686274</v>
       </c>
       <c r="F242">
-        <v>30.39933533874367</v>
+        <v>0</v>
       </c>
       <c r="G242">
-        <v>14.48779763584261</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <v>1.126227932940935</v>
+        <v>1.052107595306362</v>
       </c>
       <c r="I242">
         <v>1.448484773894009</v>
       </c>
       <c r="J242">
-        <v>1.416260524023409</v>
+        <v>1.435274694264375</v>
       </c>
       <c r="K242">
         <v>889.4196428571429</v>
@@ -10720,22 +10720,22 @@
         <v>280.7960535714215</v>
       </c>
       <c r="E243">
-        <v>287.9993412680743</v>
+        <v>278.8692567312327</v>
       </c>
       <c r="F243">
-        <v>-7.203287696652865</v>
+        <v>1.926796840188786</v>
       </c>
       <c r="G243">
-        <v>7.284509939189746</v>
+        <v>1.926796840188786</v>
       </c>
       <c r="H243">
-        <v>0.9749885271787898</v>
+        <v>1.006909319667481</v>
       </c>
       <c r="I243">
         <v>1.469896962883627</v>
       </c>
       <c r="J243">
-        <v>1.476402431964491</v>
+        <v>1.467394126512646</v>
       </c>
       <c r="K243">
         <v>887.5074404761905</v>
@@ -10761,22 +10761,22 @@
         <v>292.2587142857152</v>
       </c>
       <c r="E244">
-        <v>282.0312356857981</v>
+        <v>276.2029160204856</v>
       </c>
       <c r="F244">
-        <v>10.22747859991711</v>
+        <v>16.05579826522955</v>
       </c>
       <c r="G244">
-        <v>17.51198853910685</v>
+        <v>17.98259510541834</v>
       </c>
       <c r="H244">
-        <v>1.03626363787347</v>
+        <v>1.058130444444833</v>
       </c>
       <c r="I244">
         <v>1.471019616096082</v>
       </c>
       <c r="J244">
-        <v>1.465337355541965</v>
+        <v>1.459898783280458</v>
       </c>
       <c r="K244">
         <v>890.6934523809524</v>
@@ -10802,22 +10802,22 @@
         <v>291.4087559523815</v>
       </c>
       <c r="E245">
-        <v>260.8141145691466</v>
+        <v>266.7238488327028</v>
       </c>
       <c r="F245">
-        <v>30.59464138323494</v>
+        <v>24.68490711967871</v>
       </c>
       <c r="G245">
-        <v>48.1066299223418</v>
+        <v>42.66750222509705</v>
       </c>
       <c r="H245">
-        <v>1.117304392953487</v>
+        <v>1.092548556222889</v>
       </c>
       <c r="I245">
         <v>1.472322448399733</v>
       </c>
       <c r="J245">
-        <v>1.439062788952305</v>
+        <v>1.446178178727229</v>
       </c>
       <c r="K245">
         <v>894.7008928571429</v>
@@ -10843,22 +10843,22 @@
         <v>279.5389166666649</v>
       </c>
       <c r="E246">
-        <v>243.9068905225044</v>
+        <v>259.170292824049</v>
       </c>
       <c r="F246">
-        <v>35.63202614416053</v>
+        <v>20.36862384261593</v>
       </c>
       <c r="G246">
-        <v>83.73865606650233</v>
+        <v>63.03612606771298</v>
       </c>
       <c r="H246">
-        <v>1.146088640906489</v>
+        <v>1.078591661184117</v>
       </c>
       <c r="I246">
         <v>1.456163578559907</v>
       </c>
       <c r="J246">
-        <v>1.41866497295174</v>
+        <v>1.435728310487115</v>
       </c>
       <c r="K246">
         <v>897.547619047619</v>
@@ -10884,22 +10884,22 @@
         <v>296.4077380952409</v>
       </c>
       <c r="E247">
-        <v>273.7149045414882</v>
+        <v>272.4874703085367</v>
       </c>
       <c r="F247">
-        <v>22.69283355375262</v>
+        <v>23.92026778670413</v>
       </c>
       <c r="G247">
-        <v>106.431489620255</v>
+        <v>86.95639385441712</v>
       </c>
       <c r="H247">
-        <v>1.082906824499624</v>
+        <v>1.087784835609576</v>
       </c>
       <c r="I247">
         <v>1.473072588488984</v>
       </c>
       <c r="J247">
-        <v>1.451173033101619</v>
+        <v>1.450674184366834</v>
       </c>
       <c r="K247">
         <v>904.2247023809524</v>
@@ -10925,22 +10925,22 @@
         <v>309.7583452380939</v>
       </c>
       <c r="E248">
-        <v>280.9980164385033</v>
+        <v>275.7413098199568</v>
       </c>
       <c r="F248">
-        <v>28.76032879959052</v>
+        <v>34.01703541813703</v>
       </c>
       <c r="G248">
-        <v>135.1918184198455</v>
+        <v>120.9734292725541</v>
       </c>
       <c r="H248">
-        <v>1.102350647040545</v>
+        <v>1.12336575698559</v>
       </c>
       <c r="I248">
         <v>1.472326702165351</v>
       </c>
       <c r="J248">
-        <v>1.458104521196165</v>
+        <v>1.453342332792212</v>
       </c>
       <c r="K248">
         <v>910.0178571428571</v>
@@ -10966,22 +10966,22 @@
         <v>326.2118154761875</v>
       </c>
       <c r="E249">
-        <v>287.6163998687273</v>
+        <v>278.698171915652</v>
       </c>
       <c r="F249">
-        <v>38.59541560746015</v>
+        <v>47.51364356053546</v>
       </c>
       <c r="G249">
-        <v>173.7872340273056</v>
+        <v>168.4870728330896</v>
       </c>
       <c r="H249">
-        <v>1.134190594225766</v>
+        <v>1.170484231144923</v>
       </c>
       <c r="I249">
         <v>1.489925053143031</v>
       </c>
       <c r="J249">
-        <v>1.468534926406103</v>
+        <v>1.459910008462773</v>
       </c>
       <c r="K249">
         <v>915.9880952380952</v>
@@ -11007,22 +11007,22 @@
         <v>324.7616964285733</v>
       </c>
       <c r="E250">
-        <v>291.0411965345857</v>
+        <v>280.2282512097127</v>
       </c>
       <c r="F250">
-        <v>33.72049989398766</v>
+        <v>44.53344521886061</v>
       </c>
       <c r="G250">
-        <v>207.5077339212933</v>
+        <v>213.0205180519502</v>
       </c>
       <c r="H250">
-        <v>1.115861604114799</v>
+        <v>1.158918471020016</v>
       </c>
       <c r="I250">
         <v>1.483589215446436</v>
       </c>
       <c r="J250">
-        <v>1.468810925050417</v>
+        <v>1.458221003372777</v>
       </c>
       <c r="K250">
         <v>923.8110119047619</v>
@@ -11048,22 +11048,22 @@
         <v>315.963297619052</v>
       </c>
       <c r="E251">
-        <v>293.8554545543151</v>
+        <v>281.4855632034609</v>
       </c>
       <c r="F251">
-        <v>22.10784306473681</v>
+        <v>34.4777344155911</v>
       </c>
       <c r="G251">
-        <v>229.6155769860301</v>
+        <v>247.4982524675413</v>
       </c>
       <c r="H251">
-        <v>1.07523373387187</v>
+        <v>1.122484911919515</v>
       </c>
       <c r="I251">
         <v>1.482187563629335</v>
       </c>
       <c r="J251">
-        <v>1.469918019883661</v>
+        <v>1.457751732387844</v>
       </c>
       <c r="K251">
         <v>929.3630952380952</v>
@@ -11089,22 +11089,22 @@
         <v>311.6471309523774</v>
       </c>
       <c r="E252">
-        <v>248.8706780951724</v>
+        <v>261.3879393958204</v>
       </c>
       <c r="F252">
-        <v>62.77645285720502</v>
+        <v>50.25919155655703</v>
       </c>
       <c r="G252">
-        <v>292.3920298432352</v>
+        <v>297.7574440240983</v>
       </c>
       <c r="H252">
-        <v>1.25224527589063</v>
+        <v>1.192278158176416</v>
       </c>
       <c r="I252">
         <v>1.473786175248547</v>
       </c>
       <c r="J252">
-        <v>1.418329441282336</v>
+        <v>1.432190698183436</v>
       </c>
       <c r="K252">
         <v>934.6458333333334</v>
@@ -11130,22 +11130,22 @@
         <v>270.7251999999397</v>
       </c>
       <c r="E253">
-        <v>186.5343210599565</v>
+        <v>233.5382366331449</v>
       </c>
       <c r="F253">
-        <v>84.19087893998312</v>
+        <v>37.18696336679477</v>
       </c>
       <c r="G253">
-        <v>376.5829087832183</v>
+        <v>334.9444073908931</v>
       </c>
       <c r="H253">
-        <v>1.451342565065665</v>
+        <v>1.159232868685269</v>
       </c>
       <c r="I253">
         <v>1.445091805202321</v>
       </c>
       <c r="J253">
-        <v>1.347523544612386</v>
+        <v>1.397778113749093</v>
       </c>
       <c r="K253">
         <v>931.3</v>
@@ -11168,7 +11168,7 @@
         <v>825.5323239436708</v>
       </c>
       <c r="E254">
-        <v>1321.763557344676</v>
+        <v>1218.505984386764</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -11177,13 +11177,13 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>0.6245688340826279</v>
+        <v>0.6774955022967206</v>
       </c>
       <c r="I254">
         <v>1.630455377278746</v>
       </c>
       <c r="J254">
-        <v>1.842183407604939</v>
+        <v>1.798126280469262</v>
       </c>
       <c r="K254">
         <v>2343.720066901401</v>
@@ -11209,7 +11209,7 @@
         <v>906.1565714285631</v>
       </c>
       <c r="E255">
-        <v>1210.526098932596</v>
+        <v>1162.612134674207</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -11218,13 +11218,13 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>0.7485642583233718</v>
+        <v>0.7794143415529466</v>
       </c>
       <c r="I255">
         <v>1.649540974392558</v>
       </c>
       <c r="J255">
-        <v>1.777047275591976</v>
+        <v>1.756975186219274</v>
       </c>
       <c r="K255">
         <v>2387.094007440483</v>
@@ -11250,7 +11250,7 @@
         <v>22131.48969047619</v>
       </c>
       <c r="E256">
-        <v>1227.20193462503</v>
+        <v>1170.991296400209</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -11259,13 +11259,13 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>18.03410593321664</v>
+        <v>18.89979008256635</v>
       </c>
       <c r="I256">
         <v>1.639706442919475</v>
       </c>
       <c r="J256">
-        <v>-7.102559283548662</v>
+        <v>-7.126066821416256</v>
       </c>
       <c r="K256">
         <v>2391.175058035717</v>
@@ -11291,7 +11291,7 @@
         <v>1072.877706367667</v>
       </c>
       <c r="E257">
-        <v>1351.009043696817</v>
+        <v>1233.201059609372</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>0.7941306620952815</v>
+        <v>0.8699941489731697</v>
       </c>
       <c r="I257">
         <v>1.661933474682215</v>
       </c>
       <c r="J257">
-        <v>1.778155098556331</v>
+        <v>1.7289271498201</v>
       </c>
       <c r="K257">
         <v>2393.111781249992</v>
@@ -11332,7 +11332,7 @@
         <v>983.8205295592724</v>
       </c>
       <c r="E258">
-        <v>917.1081873574996</v>
+        <v>1015.177476541371</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -11341,13 +11341,13 @@
         <v>0</v>
       </c>
       <c r="H258">
-        <v>1.072742063718779</v>
+        <v>0.9691118570824391</v>
       </c>
       <c r="I258">
         <v>1.627674989385667</v>
       </c>
       <c r="J258">
-        <v>1.599968928170657</v>
+        <v>1.640697729465369</v>
       </c>
       <c r="K258">
         <v>2407.860925595243</v>
@@ -11373,7 +11373,7 @@
         <v>925.5769462259444</v>
       </c>
       <c r="E259">
-        <v>955.437924824895</v>
+        <v>1034.437145146778</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -11382,13 +11382,13 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>0.9687462912837344</v>
+        <v>0.8947638341956613</v>
       </c>
       <c r="I259">
         <v>1.600643828857363</v>
       </c>
       <c r="J259">
-        <v>1.612976351065534</v>
+        <v>1.645602865157139</v>
       </c>
       <c r="K259">
         <v>2421.319669642852</v>
@@ -11414,7 +11414,7 @@
         <v>1026.936889829053</v>
       </c>
       <c r="E260">
-        <v>1157.111312730268</v>
+        <v>1135.772632270609</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -11423,13 +11423,13 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <v>0.8875005183433378</v>
+        <v>0.9041747094891923</v>
       </c>
       <c r="I260">
         <v>1.640151168630854</v>
       </c>
       <c r="J260">
-        <v>1.693883399055898</v>
+        <v>1.685075409975778</v>
       </c>
       <c r="K260">
         <v>2422.650648809526</v>
@@ -11455,7 +11455,7 @@
         <v>1059.167273305424</v>
       </c>
       <c r="E261">
-        <v>1266.217356125831</v>
+        <v>1190.595502905534</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -11464,13 +11464,13 @@
         <v>0</v>
       </c>
       <c r="H261">
-        <v>0.8364814051720904</v>
+        <v>0.8896113505557756</v>
       </c>
       <c r="I261">
         <v>1.63467942927441</v>
       </c>
       <c r="J261">
-        <v>1.718240714970875</v>
+        <v>1.687721242600905</v>
       </c>
       <c r="K261">
         <v>2477.823086309524</v>
@@ -11496,7 +11496,7 @@
         <v>978.3603372181533</v>
       </c>
       <c r="E262">
-        <v>1053.984434106006</v>
+        <v>1083.954132122968</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -11505,13 +11505,13 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>0.9282493228166153</v>
+        <v>0.9025846280986035</v>
       </c>
       <c r="I262">
         <v>1.604125269309702</v>
       </c>
       <c r="J262">
-        <v>1.634171862026393</v>
+        <v>1.646079274441423</v>
       </c>
       <c r="K262">
         <v>2516.894264880956</v>
@@ -11537,7 +11537,7 @@
         <v>1060.676837877187</v>
       </c>
       <c r="E263">
-        <v>1114.050355432371</v>
+        <v>1114.135652155769</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -11546,13 +11546,13 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>0.9520905699684739</v>
+        <v>0.9520176791980912</v>
       </c>
       <c r="I263">
         <v>1.623809611880125</v>
       </c>
       <c r="J263">
-        <v>1.64478855106587</v>
+        <v>1.644822077707075</v>
       </c>
       <c r="K263">
         <v>2544.147589285714</v>
@@ -11578,7 +11578,7 @@
         <v>1155.563435884647</v>
       </c>
       <c r="E264">
-        <v>1352.064997108263</v>
+        <v>1233.731647975245</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -11587,13 +11587,13 @@
         <v>0</v>
       </c>
       <c r="H264">
-        <v>0.8546655954825512</v>
+        <v>0.936640830914174</v>
       </c>
       <c r="I264">
         <v>1.657980874301686</v>
       </c>
       <c r="J264">
-        <v>1.734936492832614</v>
+        <v>1.688593776679817</v>
       </c>
       <c r="K264">
         <v>2553.440086309521</v>
@@ -11619,7 +11619,7 @@
         <v>1082.476238853126</v>
       </c>
       <c r="E265">
-        <v>1070.098008891047</v>
+        <v>1092.050772771037</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -11628,13 +11628,13 @@
         <v>0</v>
       </c>
       <c r="H265">
-        <v>1.011567379678528</v>
+        <v>0.9912325194426488</v>
       </c>
       <c r="I265">
         <v>1.632826007778472</v>
       </c>
       <c r="J265">
-        <v>1.62798512763677</v>
+        <v>1.636570418025435</v>
       </c>
       <c r="K265">
         <v>2557.020541666663</v>
@@ -11660,7 +11660,7 @@
         <v>955.6211677260276</v>
       </c>
       <c r="E266">
-        <v>907.8240255451823</v>
+        <v>1010.512433376484</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -11669,13 +11669,13 @@
         <v>0</v>
       </c>
       <c r="H266">
-        <v>1.052650228277602</v>
+        <v>0.945679772126064</v>
       </c>
       <c r="I266">
         <v>1.584854299015789</v>
       </c>
       <c r="J266">
-        <v>1.566203012337188</v>
+        <v>1.606273837613394</v>
       </c>
       <c r="K266">
         <v>2562.672645833338</v>
@@ -11701,7 +11701,7 @@
         <v>1009.903438408624</v>
       </c>
       <c r="E267">
-        <v>984.8949109000168</v>
+        <v>1049.238493327247</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -11710,13 +11710,13 @@
         <v>0</v>
       </c>
       <c r="H267">
-        <v>1.025392077095569</v>
+        <v>0.9625108541396644</v>
       </c>
       <c r="I267">
         <v>1.60770588006845</v>
       </c>
       <c r="J267">
-        <v>1.597973195617145</v>
+        <v>1.623014085530205</v>
       </c>
       <c r="K267">
         <v>2569.540565476193</v>
@@ -11742,7 +11742,7 @@
         <v>1060.629588480146</v>
       </c>
       <c r="E268">
-        <v>1060.00473991931</v>
+        <v>1086.979174884246</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -11751,13 +11751,13 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>1.000589477138455</v>
+        <v>0.9757588857147094</v>
       </c>
       <c r="I268">
         <v>1.625766156821475</v>
       </c>
       <c r="J268">
-        <v>1.625523368041201</v>
+        <v>1.636004451897686</v>
       </c>
       <c r="K268">
         <v>2573.630297619051</v>
@@ -11783,7 +11783,7 @@
         <v>1048.15674450404</v>
       </c>
       <c r="E269">
-        <v>1118.959853111558</v>
+        <v>1116.602543519181</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -11792,13 +11792,13 @@
         <v>0</v>
       </c>
       <c r="H269">
-        <v>0.9367241743207925</v>
+        <v>0.9387017346392375</v>
       </c>
       <c r="I269">
         <v>1.618511144185805</v>
       </c>
       <c r="J269">
-        <v>1.646008332446574</v>
+        <v>1.645092844596882</v>
       </c>
       <c r="K269">
         <v>2574.921767857136</v>
@@ -11824,7 +11824,7 @@
         <v>928.8849919800525</v>
       </c>
       <c r="E270">
-        <v>887.7197696857183</v>
+        <v>1000.410582150893</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -11833,13 +11833,13 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <v>1.046371866100164</v>
+        <v>0.9285037649071447</v>
       </c>
       <c r="I270">
         <v>1.578775846212964</v>
       </c>
       <c r="J270">
-        <v>1.562850805803545</v>
+        <v>1.60644599713876</v>
       </c>
       <c r="K270">
         <v>2584.936755952381</v>
@@ -11865,7 +11865,7 @@
         <v>924.4225132655896</v>
       </c>
       <c r="E271">
-        <v>940.0648887959325</v>
+        <v>1026.71260543062</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -11874,13 +11874,13 @@
         <v>0</v>
       </c>
       <c r="H271">
-        <v>0.9833603236151303</v>
+        <v>0.9003712512888373</v>
       </c>
       <c r="I271">
         <v>1.576359870485145</v>
       </c>
       <c r="J271">
-        <v>1.582390317453739</v>
+        <v>1.615794736053819</v>
       </c>
       <c r="K271">
         <v>2593.899857142857</v>
@@ -11906,7 +11906,7 @@
         <v>861.9210192179751</v>
       </c>
       <c r="E272">
-        <v>828.5452376027804</v>
+        <v>970.6769613879845</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -11915,13 +11915,13 @@
         <v>0</v>
       </c>
       <c r="H272">
-        <v>1.040282389060325</v>
+        <v>0.8879586654508645</v>
       </c>
       <c r="I272">
         <v>1.55509345412709</v>
       </c>
       <c r="J272">
-        <v>1.542255928612898</v>
+        <v>1.596924899410509</v>
       </c>
       <c r="K272">
         <v>2599.860976190478</v>
@@ -11947,7 +11947,7 @@
         <v>1008.160728813301</v>
       </c>
       <c r="E273">
-        <v>880.725792544977</v>
+        <v>996.8962955717311</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -11956,13 +11956,13 @@
         <v>0</v>
       </c>
       <c r="H273">
-        <v>1.144693089889061</v>
+        <v>1.011299503560809</v>
       </c>
       <c r="I273">
         <v>1.607952689537264</v>
       </c>
       <c r="J273">
-        <v>1.559042998609737</v>
+        <v>1.603629385705111</v>
       </c>
       <c r="K273">
         <v>2605.515059523811</v>
@@ -11988,7 +11988,7 @@
         <v>816.5105546307916</v>
       </c>
       <c r="E274">
-        <v>818.8633790510876</v>
+        <v>965.8120862411448</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -11997,13 +11997,13 @@
         <v>0</v>
       </c>
       <c r="H274">
-        <v>0.9971267192055622</v>
+        <v>0.8454134776968659</v>
       </c>
       <c r="I274">
         <v>1.533161701999339</v>
       </c>
       <c r="J274">
-        <v>1.534063413052274</v>
+        <v>1.590380948838082</v>
       </c>
       <c r="K274">
         <v>2609.288654761905</v>
@@ -12029,7 +12029,7 @@
         <v>864.7361974879195</v>
       </c>
       <c r="E275">
-        <v>802.4206759300117</v>
+        <v>957.5500674011154</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -12038,13 +12038,13 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>1.077659416596767</v>
+        <v>0.9030715227611004</v>
       </c>
       <c r="I275">
         <v>1.554797450300363</v>
       </c>
       <c r="J275">
-        <v>1.530921628444432</v>
+        <v>1.590358533131832</v>
       </c>
       <c r="K275">
         <v>2609.984357142854</v>
@@ -12070,22 +12070,22 @@
         <v>593.4850082737394</v>
       </c>
       <c r="E276">
-        <v>786.8282210103592</v>
+        <v>949.715275556984</v>
       </c>
       <c r="F276">
-        <v>-193.3432127366199</v>
+        <v>0</v>
       </c>
       <c r="G276">
-        <v>-193.3432127366199</v>
+        <v>0</v>
       </c>
       <c r="H276">
-        <v>0.7542751930169084</v>
+        <v>0.6249083525856477</v>
       </c>
       <c r="I276">
         <v>1.436351797638831</v>
       </c>
       <c r="J276">
-        <v>1.510225099917864</v>
+        <v>1.572461598668177</v>
       </c>
       <c r="K276">
         <v>2617.227154761908</v>
@@ -12111,22 +12111,22 @@
         <v>719.1959666070734</v>
       </c>
       <c r="E277">
-        <v>789.762948673337</v>
+        <v>951.1898977686322</v>
       </c>
       <c r="F277">
-        <v>-70.56698206626356</v>
+        <v>0</v>
       </c>
       <c r="G277">
-        <v>-263.9101948028834</v>
+        <v>0</v>
       </c>
       <c r="H277">
-        <v>0.9106478948084312</v>
+        <v>0.7561013508387899</v>
       </c>
       <c r="I277">
         <v>1.493740588445003</v>
       </c>
       <c r="J277">
-        <v>1.520629122174469</v>
+        <v>1.582138539730656</v>
       </c>
       <c r="K277">
         <v>2624.426559523807</v>
@@ -12152,22 +12152,22 @@
         <v>835.6206244958975</v>
       </c>
       <c r="E278">
-        <v>795.4129851086024</v>
+        <v>954.0288900639551</v>
       </c>
       <c r="F278">
-        <v>40.2076393872951</v>
+        <v>0</v>
       </c>
       <c r="G278">
-        <v>-223.7025554155883</v>
+        <v>0</v>
       </c>
       <c r="H278">
-        <v>1.050549387726937</v>
+        <v>0.8758860797599956</v>
       </c>
       <c r="I278">
         <v>1.540278310997046</v>
       </c>
       <c r="J278">
-        <v>1.524986694723918</v>
+        <v>1.585310891576881</v>
       </c>
       <c r="K278">
         <v>2629.391077380954</v>
@@ -12193,22 +12193,22 @@
         <v>798.2733585036892</v>
       </c>
       <c r="E279">
-        <v>797.2094772761261</v>
+        <v>954.9315793617399</v>
       </c>
       <c r="F279">
-        <v>1.063881227563115</v>
+        <v>0</v>
       </c>
       <c r="G279">
-        <v>-222.6386741880252</v>
+        <v>0</v>
       </c>
       <c r="H279">
-        <v>1.001334506497838</v>
+        <v>0.8359482247275157</v>
       </c>
       <c r="I279">
         <v>1.527102612755731</v>
       </c>
       <c r="J279">
-        <v>1.526699734481327</v>
+        <v>1.586427086254488</v>
       </c>
       <c r="K279">
         <v>2640.701410714287</v>
@@ -12234,22 +12234,22 @@
         <v>949.533483503683</v>
       </c>
       <c r="E280">
-        <v>818.5479643957209</v>
+        <v>965.6535988071827</v>
       </c>
       <c r="F280">
-        <v>130.9855191079621</v>
+        <v>0</v>
       </c>
       <c r="G280">
-        <v>-91.65315508006313</v>
+        <v>0</v>
       </c>
       <c r="H280">
-        <v>1.160021800560777</v>
+        <v>0.9833065238679668</v>
       </c>
       <c r="I280">
         <v>1.584452821548302</v>
       </c>
       <c r="J280">
-        <v>1.535166725826816</v>
+        <v>1.590518358802346</v>
       </c>
       <c r="K280">
         <v>2657.656630952377</v>
@@ -12275,22 +12275,22 @@
         <v>765.8698152735624</v>
       </c>
       <c r="E281">
-        <v>800.4321922331343</v>
+        <v>956.5509074913537</v>
       </c>
       <c r="F281">
-        <v>-34.56237695957191</v>
+        <v>0</v>
       </c>
       <c r="G281">
-        <v>-126.215532039635</v>
+        <v>0</v>
       </c>
       <c r="H281">
-        <v>0.9568203561838936</v>
+        <v>0.8006576641928335</v>
       </c>
       <c r="I281">
         <v>1.511543376216454</v>
       </c>
       <c r="J281">
-        <v>1.524499100613619</v>
+        <v>1.583020279596503</v>
       </c>
       <c r="K281">
         <v>2667.730178571428</v>
@@ -12316,22 +12316,22 @@
         <v>611.8285965989232</v>
       </c>
       <c r="E282">
-        <v>786.5128063549924</v>
+        <v>949.5567881230218</v>
       </c>
       <c r="F282">
-        <v>-174.6842097560692</v>
+        <v>0</v>
       </c>
       <c r="G282">
-        <v>-300.8997417957042</v>
+        <v>0</v>
       </c>
       <c r="H282">
-        <v>0.7779003617682666</v>
+        <v>0.6443307069694252</v>
       </c>
       <c r="I282">
         <v>1.447453075097497</v>
       </c>
       <c r="J282">
-        <v>1.513007789353551</v>
+        <v>1.574194210558407</v>
       </c>
       <c r="K282">
         <v>2664.708583333335</v>
@@ -12357,22 +12357,22 @@
         <v>599.1623823132167</v>
       </c>
       <c r="E283">
-        <v>786.5128063549924</v>
+        <v>949.5567881230218</v>
       </c>
       <c r="F283">
-        <v>-187.3504240417758</v>
+        <v>0</v>
       </c>
       <c r="G283">
-        <v>-488.25016583748</v>
+        <v>0</v>
       </c>
       <c r="H283">
-        <v>0.7617960921576969</v>
+        <v>0.6309916266278021</v>
       </c>
       <c r="I283">
         <v>1.432074944501285</v>
       </c>
       <c r="J283">
-        <v>1.501176844171143</v>
+        <v>1.561313611555221</v>
       </c>
       <c r="K283">
         <v>2711.219589285713</v>
@@ -12398,22 +12398,22 @@
         <v>759.1639596941615</v>
       </c>
       <c r="E284">
-        <v>793.7673434284279</v>
+        <v>953.2019991041524</v>
       </c>
       <c r="F284">
-        <v>-34.60338373426646</v>
+        <v>0</v>
       </c>
       <c r="G284">
-        <v>-522.8535495717465</v>
+        <v>0</v>
       </c>
       <c r="H284">
-        <v>0.9564061383719717</v>
+        <v>0.7964355513392192</v>
       </c>
       <c r="I284">
         <v>1.497806385546245</v>
       </c>
       <c r="J284">
-        <v>1.510448417162488</v>
+        <v>1.568696418954906</v>
       </c>
       <c r="K284">
         <v>2737.169529761909</v>
@@ -12439,22 +12439,22 @@
         <v>961.6753002418749</v>
       </c>
       <c r="E285">
-        <v>836.3483219029406</v>
+        <v>974.5978026890494</v>
       </c>
       <c r="F285">
-        <v>125.3269783389343</v>
+        <v>0</v>
       </c>
       <c r="G285">
-        <v>-397.5265712328122</v>
+        <v>0</v>
       </c>
       <c r="H285">
-        <v>1.149850217973509</v>
+        <v>0.9867406817340244</v>
       </c>
       <c r="I285">
         <v>1.576456288197636</v>
       </c>
       <c r="J285">
-        <v>1.530794171826756</v>
+        <v>1.58116452275628</v>
       </c>
       <c r="K285">
         <v>2744.659869047613</v>
@@ -12480,22 +12480,22 @@
         <v>746.0845727894006</v>
       </c>
       <c r="E286">
-        <v>819.3022168324675</v>
+        <v>966.0325904970922</v>
       </c>
       <c r="F286">
-        <v>-73.21764404306691</v>
+        <v>0</v>
       </c>
       <c r="G286">
-        <v>-470.7442152758791</v>
+        <v>0</v>
       </c>
       <c r="H286">
-        <v>0.910634143861912</v>
+        <v>0.7723182221062409</v>
       </c>
       <c r="I286">
         <v>1.493165731010845</v>
       </c>
       <c r="J286">
-        <v>1.51984496329262</v>
+        <v>1.573310951893503</v>
       </c>
       <c r="K286">
         <v>2744.368476190477</v>
@@ -12521,22 +12521,22 @@
         <v>941.341937448106</v>
       </c>
       <c r="E287">
-        <v>847.9226683868339</v>
+        <v>980.4136024396623</v>
       </c>
       <c r="F287">
-        <v>93.41926906127208</v>
+        <v>0</v>
       </c>
       <c r="G287">
-        <v>-377.3249462146071</v>
+        <v>0</v>
       </c>
       <c r="H287">
-        <v>1.110174279500042</v>
+        <v>0.960147773455682</v>
       </c>
       <c r="I287">
         <v>1.566231126569151</v>
       </c>
       <c r="J287">
-        <v>1.53235678933468</v>
+        <v>1.580398725711553</v>
       </c>
       <c r="K287">
         <v>2757.818357142864</v>
@@ -12562,22 +12562,22 @@
         <v>956.9346442740726</v>
       </c>
       <c r="E288">
-        <v>922.7856511541012</v>
+        <v>1018.030250352691</v>
       </c>
       <c r="F288">
-        <v>34.14899311997146</v>
+        <v>0</v>
       </c>
       <c r="G288">
-        <v>-343.1759530946356</v>
+        <v>0</v>
       </c>
       <c r="H288">
-        <v>1.037006419721917</v>
+        <v>0.939986453194832</v>
       </c>
       <c r="I288">
         <v>1.565487255216931</v>
       </c>
       <c r="J288">
-        <v>1.553147747946411</v>
+        <v>1.587563738489962</v>
       </c>
       <c r="K288">
         <v>2767.451922619039</v>
@@ -12603,22 +12603,22 @@
         <v>1095.571794590979</v>
       </c>
       <c r="E289">
-        <v>963.1587270410466</v>
+        <v>1038.316641899852</v>
       </c>
       <c r="F289">
-        <v>132.4130675499327</v>
+        <v>0</v>
       </c>
       <c r="G289">
-        <v>-210.7628855447028</v>
+        <v>0</v>
       </c>
       <c r="H289">
-        <v>1.137477929475574</v>
+        <v>1.055142285484671</v>
       </c>
       <c r="I289">
         <v>1.617896971742805</v>
       </c>
       <c r="J289">
-        <v>1.570272825698438</v>
+        <v>1.597304383684783</v>
       </c>
       <c r="K289">
         <v>2780.376732142864</v>
@@ -12644,22 +12644,22 @@
         <v>1028.058721598922</v>
       </c>
       <c r="E290">
-        <v>949.8564567929701</v>
+        <v>1031.632606641447</v>
       </c>
       <c r="F290">
-        <v>78.20226480595227</v>
+        <v>0</v>
       </c>
       <c r="G290">
-        <v>-132.5606207387506</v>
+        <v>0</v>
       </c>
       <c r="H290">
-        <v>1.082330613480261</v>
+        <v>0.9965356998028987</v>
       </c>
       <c r="I290">
         <v>1.591508463478796</v>
       </c>
       <c r="J290">
-        <v>1.563539123721077</v>
+        <v>1.592786677162983</v>
       </c>
       <c r="K290">
         <v>2795.999672619044</v>
@@ -12685,22 +12685,22 @@
         <v>1114.096879186286</v>
       </c>
       <c r="E291">
-        <v>1077.215409157801</v>
+        <v>1095.627076172184</v>
       </c>
       <c r="F291">
-        <v>36.88147002848518</v>
+        <v>0</v>
       </c>
       <c r="G291">
-        <v>-95.67915071026539</v>
+        <v>0</v>
       </c>
       <c r="H291">
-        <v>1.034237785418722</v>
+        <v>1.01685774604862</v>
       </c>
       <c r="I291">
         <v>1.620212835005963</v>
       </c>
       <c r="J291">
-        <v>1.607078052913528</v>
+        <v>1.613635091827801</v>
       </c>
       <c r="K291">
         <v>2807.924011904757</v>
@@ -12726,22 +12726,22 @@
         <v>1148.271133876683</v>
       </c>
       <c r="E292">
-        <v>1073.485288016072</v>
+        <v>1093.752789996631</v>
       </c>
       <c r="F292">
-        <v>74.78584586061061</v>
+        <v>0</v>
       </c>
       <c r="G292">
-        <v>-20.89330484965478</v>
+        <v>0</v>
       </c>
       <c r="H292">
-        <v>1.069666391049312</v>
+        <v>1.049845215828176</v>
       </c>
       <c r="I292">
         <v>1.637046408519591</v>
       </c>
       <c r="J292">
-        <v>1.610421998053636</v>
+        <v>1.61763740473441</v>
       </c>
       <c r="K292">
         <v>2808.920255952387</v>
@@ -12767,22 +12767,22 @@
         <v>1086.871120408438</v>
       </c>
       <c r="E293">
-        <v>1103.422252914578</v>
+        <v>1108.795314707043</v>
       </c>
       <c r="F293">
-        <v>-16.55113250614022</v>
+        <v>0</v>
       </c>
       <c r="G293">
-        <v>-37.444437355795</v>
+        <v>0</v>
       </c>
       <c r="H293">
-        <v>0.98500018242117</v>
+        <v>0.9802270139422463</v>
       </c>
       <c r="I293">
         <v>1.611093541154507</v>
       </c>
       <c r="J293">
-        <v>1.616965165481657</v>
+        <v>1.618871294885202</v>
       </c>
       <c r="K293">
         <v>2818.83369642857</v>
@@ -12808,22 +12808,22 @@
         <v>1034.186246971921</v>
       </c>
       <c r="E294">
-        <v>1011.321173547484</v>
+        <v>1062.51698399008</v>
       </c>
       <c r="F294">
-        <v>22.86507342443713</v>
+        <v>0</v>
       </c>
       <c r="G294">
-        <v>-14.57936393135788</v>
+        <v>0</v>
       </c>
       <c r="H294">
-        <v>1.022609111746599</v>
+        <v>0.9733362031430608</v>
       </c>
       <c r="I294">
         <v>1.593152956465952</v>
       </c>
       <c r="J294">
-        <v>1.58505151679362</v>
+        <v>1.603190963017028</v>
       </c>
       <c r="K294">
         <v>2822.346934523816</v>
@@ -12849,22 +12849,22 @@
         <v>1175.722860067151</v>
       </c>
       <c r="E295">
-        <v>1254.355022347907</v>
+        <v>1184.634997236955</v>
       </c>
       <c r="F295">
-        <v>-78.63216228075589</v>
+        <v>0</v>
       </c>
       <c r="G295">
-        <v>-93.21152621211377</v>
+        <v>0</v>
       </c>
       <c r="H295">
-        <v>0.9373126739401323</v>
+        <v>0.9924768918775907</v>
       </c>
       <c r="I295">
         <v>1.634257502936944</v>
       </c>
       <c r="J295">
-        <v>1.661964465943373</v>
+        <v>1.637397798812191</v>
       </c>
       <c r="K295">
         <v>2837.992827380952</v>
@@ -12890,22 +12890,22 @@
         <v>1000.197199352864</v>
       </c>
       <c r="E296">
-        <v>977.7775106332625</v>
+        <v>1045.6621899261</v>
       </c>
       <c r="F296">
-        <v>22.41968871960194</v>
+        <v>0</v>
       </c>
       <c r="G296">
-        <v>-70.79183749251183</v>
+        <v>0</v>
       </c>
       <c r="H296">
-        <v>1.022929233364226</v>
+        <v>0.9565203839143797</v>
       </c>
       <c r="I296">
         <v>1.574362506979673</v>
       </c>
       <c r="J296">
-        <v>1.566479585953359</v>
+        <v>1.590348319032341</v>
       </c>
       <c r="K296">
         <v>2844.083892857135</v>
@@ -12931,22 +12931,22 @@
         <v>975.3134596941666</v>
       </c>
       <c r="E297">
-        <v>937.8706998890332</v>
+        <v>1025.610084150883</v>
       </c>
       <c r="F297">
-        <v>37.44275980513339</v>
+        <v>0</v>
       </c>
       <c r="G297">
-        <v>-33.34907768737844</v>
+        <v>0</v>
       </c>
       <c r="H297">
-        <v>1.039923157648025</v>
+        <v>0.9509593116975273</v>
       </c>
       <c r="I297">
         <v>1.565328450188139</v>
       </c>
       <c r="J297">
-        <v>1.552204923461107</v>
+        <v>1.582957201347841</v>
       </c>
       <c r="K297">
         <v>2853.101958333337</v>
@@ -12972,22 +12972,22 @@
         <v>1223.711993844986</v>
       </c>
       <c r="E298">
-        <v>1306.069312147388</v>
+        <v>1210.620045648757</v>
       </c>
       <c r="F298">
-        <v>-82.35731830240229</v>
+        <v>0</v>
       </c>
       <c r="G298">
-        <v>-115.7063959897807</v>
+        <v>0</v>
       </c>
       <c r="H298">
-        <v>0.9369426128181562</v>
+        <v>1.010814250303622</v>
       </c>
       <c r="I298">
         <v>1.649097685745922</v>
       </c>
       <c r="J298">
-        <v>1.677908955317066</v>
+        <v>1.644517696299107</v>
       </c>
       <c r="K298">
         <v>2858.510559523811</v>
@@ -13013,22 +13013,22 @@
         <v>1166.179923376933</v>
       </c>
       <c r="E299">
-        <v>1197.607811743227</v>
+        <v>1156.121040639756</v>
       </c>
       <c r="F299">
-        <v>-31.42788836629347</v>
+        <v>0</v>
       </c>
       <c r="G299">
-        <v>-147.1342843560742</v>
+        <v>0</v>
       </c>
       <c r="H299">
-        <v>0.9737577794181659</v>
+        <v>1.008700544651978</v>
       </c>
       <c r="I299">
         <v>1.628441658711434</v>
       </c>
       <c r="J299">
-        <v>1.639410385318714</v>
+        <v>1.624930982670052</v>
       </c>
       <c r="K299">
         <v>2865.226702380948</v>
@@ -13054,22 +13054,22 @@
         <v>1159.896376059366</v>
       </c>
       <c r="E300">
-        <v>1232.714834253614</v>
+        <v>1173.761381115548</v>
       </c>
       <c r="F300">
-        <v>-72.81845819424825</v>
+        <v>0</v>
       </c>
       <c r="G300">
-        <v>-219.9527425503225</v>
+        <v>0</v>
       </c>
       <c r="H300">
-        <v>0.9409283832960942</v>
+        <v>0.9881875436700726</v>
       </c>
       <c r="I300">
         <v>1.628550463132156</v>
       </c>
       <c r="J300">
-        <v>1.653957171577679</v>
+        <v>1.633388029729878</v>
       </c>
       <c r="K300">
         <v>2866.111458333336</v>
@@ -13095,22 +13095,22 @@
         <v>992.4575160910442</v>
       </c>
       <c r="E301">
-        <v>914.3654512238755</v>
+        <v>1013.7993249417</v>
       </c>
       <c r="F301">
-        <v>78.09206486716869</v>
+        <v>0</v>
       </c>
       <c r="G301">
-        <v>-141.8606776831538</v>
+        <v>0</v>
       </c>
       <c r="H301">
-        <v>1.085405747518831</v>
+        <v>0.9789486850843161</v>
       </c>
       <c r="I301">
         <v>1.570723039668468</v>
       </c>
       <c r="J301">
-        <v>1.543560037094981</v>
+        <v>1.578146426535229</v>
       </c>
       <c r="K301">
         <v>2874.942291666665</v>
@@ -13136,22 +13136,22 @@
         <v>1149.229300704111</v>
       </c>
       <c r="E302">
-        <v>1207.632512311622</v>
+        <v>1161.158184736554</v>
       </c>
       <c r="F302">
-        <v>-58.40321160751114</v>
+        <v>0</v>
       </c>
       <c r="G302">
-        <v>-200.2638892906649</v>
+        <v>0</v>
       </c>
       <c r="H302">
-        <v>0.9516382583177418</v>
+        <v>0.9897267364694591</v>
       </c>
       <c r="I302">
         <v>0.1873026997491127</v>
       </c>
       <c r="J302">
-        <v>0.1896445440704983</v>
+        <v>0.1877810225769665</v>
       </c>
       <c r="K302">
         <v>24938.98124404762</v>
@@ -13177,22 +13177,22 @@
         <v>1165.578398809516</v>
       </c>
       <c r="E303">
-        <v>1069.083196521606</v>
+        <v>1091.540856679158</v>
       </c>
       <c r="F303">
-        <v>96.49520228791039</v>
+        <v>0</v>
       </c>
       <c r="G303">
-        <v>-103.7686870027545</v>
+        <v>0</v>
       </c>
       <c r="H303">
-        <v>1.090259768932736</v>
+        <v>1.067828466224897</v>
       </c>
       <c r="I303">
         <v>1.47109006975278</v>
       </c>
       <c r="J303">
-        <v>1.440832300225289</v>
+        <v>1.447874294946918</v>
       </c>
       <c r="K303">
         <v>3189.104940476195</v>
@@ -13218,22 +13218,22 @@
         <v>997.5174642857191</v>
       </c>
       <c r="E304">
-        <v>949.9935935996514</v>
+        <v>1031.70151422143</v>
       </c>
       <c r="F304">
-        <v>47.52387068606777</v>
+        <v>0</v>
       </c>
       <c r="G304">
-        <v>-56.24481631668675</v>
+        <v>0</v>
       </c>
       <c r="H304">
-        <v>1.050025464388653</v>
+        <v>0.9668663373422421</v>
       </c>
       <c r="I304">
         <v>1.418306737021328</v>
       </c>
       <c r="J304">
-        <v>1.40337607084799</v>
+        <v>1.429046405964002</v>
       </c>
       <c r="K304">
         <v>3182.970547619054</v>
@@ -13259,22 +13259,22 @@
         <v>1095.151898809545</v>
       </c>
       <c r="E305">
-        <v>992.6157131161684</v>
+        <v>1053.117990080322</v>
       </c>
       <c r="F305">
-        <v>102.5361856933768</v>
+        <v>0</v>
       </c>
       <c r="G305">
-        <v>46.29136937669</v>
+        <v>0</v>
       </c>
       <c r="H305">
-        <v>1.103298974959282</v>
+        <v>1.039913769516004</v>
       </c>
       <c r="I305">
         <v>1.448484773894009</v>
       </c>
       <c r="J305">
-        <v>1.416260524023409</v>
+        <v>1.435274694264375</v>
       </c>
       <c r="K305">
         <v>3181.957255952371</v>
@@ -13300,22 +13300,22 @@
         <v>1151.032470238074</v>
       </c>
       <c r="E306">
-        <v>1171.675241599812</v>
+        <v>1143.090617264863</v>
       </c>
       <c r="F306">
-        <v>-20.64277136173814</v>
+        <v>7.941852973210189</v>
       </c>
       <c r="G306">
-        <v>25.64859801495186</v>
+        <v>7.941852973210189</v>
       </c>
       <c r="H306">
-        <v>0.9823818319028809</v>
+        <v>1.006947702004775</v>
       </c>
       <c r="I306">
         <v>1.469896962883627</v>
       </c>
       <c r="J306">
-        <v>1.476402431964491</v>
+        <v>1.467394126512646</v>
       </c>
       <c r="K306">
         <v>3173.141107142858</v>
@@ -13341,22 +13341,22 @@
         <v>1167.109154761908</v>
       </c>
       <c r="E307">
-        <v>1149.020241136077</v>
+        <v>1131.707085051578</v>
       </c>
       <c r="F307">
-        <v>18.08891362583017</v>
+        <v>35.40206971032922</v>
       </c>
       <c r="G307">
-        <v>43.73751164078203</v>
+        <v>43.3439226835394</v>
       </c>
       <c r="H307">
-        <v>1.015742902499215</v>
+        <v>1.03128200766607</v>
       </c>
       <c r="I307">
         <v>1.471019616096082</v>
       </c>
       <c r="J307">
-        <v>1.465337355541965</v>
+        <v>1.459898783280458</v>
       </c>
       <c r="K307">
         <v>3183.400946428578</v>
@@ -13382,22 +13382,22 @@
         <v>1174.857517857143</v>
       </c>
       <c r="E308">
-        <v>1068.479794572208</v>
+        <v>1091.237663327231</v>
       </c>
       <c r="F308">
-        <v>106.377723284935</v>
+        <v>83.6198545299128</v>
       </c>
       <c r="G308">
-        <v>150.115234925717</v>
+        <v>126.9637772134522</v>
       </c>
       <c r="H308">
-        <v>1.099559882952701</v>
+        <v>1.076628453489181</v>
       </c>
       <c r="I308">
         <v>1.472322448399733</v>
       </c>
       <c r="J308">
-        <v>1.439062788952305</v>
+        <v>1.446178178727229</v>
       </c>
       <c r="K308">
         <v>3198.400857142849</v>
@@ -13423,22 +13423,22 @@
         <v>1124.485327380959</v>
       </c>
       <c r="E309">
-        <v>1004.299769045407</v>
+        <v>1058.988915894922</v>
       </c>
       <c r="F309">
-        <v>120.1855583355521</v>
+        <v>65.49641148603678</v>
       </c>
       <c r="G309">
-        <v>270.3007932612691</v>
+        <v>192.460188699489</v>
       </c>
       <c r="H309">
-        <v>1.119671000671233</v>
+        <v>1.061848061394191</v>
       </c>
       <c r="I309">
         <v>1.456163578559907</v>
       </c>
       <c r="J309">
-        <v>1.41866497295174</v>
+        <v>1.435728310487115</v>
       </c>
       <c r="K309">
         <v>3205.067398809529</v>
@@ -13464,22 +13464,22 @@
         <v>1187.989654761903</v>
       </c>
       <c r="E310">
-        <v>1117.451348238065</v>
+        <v>1115.844560139362</v>
       </c>
       <c r="F310">
-        <v>70.53830652383749</v>
+        <v>72.14509462254091</v>
       </c>
       <c r="G310">
-        <v>340.8390997851066</v>
+        <v>264.6052833220299</v>
       </c>
       <c r="H310">
-        <v>1.063124275285057</v>
+        <v>1.064655147499693</v>
       </c>
       <c r="I310">
         <v>1.473072588488984</v>
       </c>
       <c r="J310">
-        <v>1.451173033101619</v>
+        <v>1.450674184366834</v>
       </c>
       <c r="K310">
         <v>3220.992630952382</v>
@@ -13505,22 +13505,22 @@
         <v>1190.975839285712</v>
       </c>
       <c r="E311">
-        <v>1145.098128464995</v>
+        <v>1129.736328264049</v>
       </c>
       <c r="F311">
-        <v>45.87771082071708</v>
+        <v>61.2395110216637</v>
       </c>
       <c r="G311">
-        <v>386.7168106058236</v>
+        <v>325.8447943436936</v>
       </c>
       <c r="H311">
-        <v>1.040064436121484</v>
+        <v>1.054206906062554</v>
       </c>
       <c r="I311">
         <v>1.472326702165351</v>
       </c>
       <c r="J311">
-        <v>1.458104521196165</v>
+        <v>1.453342332792212</v>
       </c>
       <c r="K311">
         <v>3225.785898809521</v>
@@ -13546,22 +13546,22 @@
         <v>1239.318916666668</v>
       </c>
       <c r="E312">
-        <v>1170.221591448991</v>
+        <v>1142.360196917038</v>
       </c>
       <c r="F312">
-        <v>69.09732521767705</v>
+        <v>96.95871974963029</v>
       </c>
       <c r="G312">
-        <v>455.8141358235007</v>
+        <v>422.8035140933239</v>
       </c>
       <c r="H312">
-        <v>1.059046359871141</v>
+        <v>1.084875786123588</v>
       </c>
       <c r="I312">
         <v>1.489925053143031</v>
       </c>
       <c r="J312">
-        <v>1.468534926406103</v>
+        <v>1.459910008462773</v>
       </c>
       <c r="K312">
         <v>3230.337345238099</v>
@@ -13587,22 +13587,22 @@
         <v>1231.129190476187</v>
       </c>
       <c r="E313">
-        <v>1183.222160722369</v>
+        <v>1148.89263549948</v>
       </c>
       <c r="F313">
-        <v>47.90702975381851</v>
+        <v>82.23655497670757</v>
       </c>
       <c r="G313">
-        <v>503.7211655773192</v>
+        <v>505.0400690700314</v>
       </c>
       <c r="H313">
-        <v>1.040488617728873</v>
+        <v>1.071578973035157</v>
       </c>
       <c r="I313">
         <v>1.483589215446436</v>
       </c>
       <c r="J313">
-        <v>1.468810925050417</v>
+        <v>1.458221003372777</v>
       </c>
       <c r="K313">
         <v>3241.716630952377</v>
@@ -13628,22 +13628,22 @@
         <v>1233.886166666651</v>
       </c>
       <c r="E314">
-        <v>1193.905117962834</v>
+        <v>1154.260535980199</v>
       </c>
       <c r="F314">
-        <v>39.98104870381667</v>
+        <v>79.62563068645159</v>
       </c>
       <c r="G314">
-        <v>543.7022142811359</v>
+        <v>584.665699756483</v>
       </c>
       <c r="H314">
-        <v>1.033487626531023</v>
+        <v>1.068984105584822</v>
       </c>
       <c r="I314">
         <v>1.482187563629335</v>
       </c>
       <c r="J314">
-        <v>1.469918019883661</v>
+        <v>1.457751732387844</v>
       </c>
       <c r="K314">
         <v>3258.560345238097</v>
@@ -13669,22 +13669,22 @@
         <v>1204.438440476212</v>
       </c>
       <c r="E315">
-        <v>1023.142366283404</v>
+        <v>1068.456817384664</v>
       </c>
       <c r="F315">
-        <v>181.296074192808</v>
+        <v>135.9816230915478</v>
       </c>
       <c r="G315">
-        <v>724.9982884739438</v>
+        <v>720.6473228480309</v>
       </c>
       <c r="H315">
-        <v>1.177195354397621</v>
+        <v>1.12726918007262</v>
       </c>
       <c r="I315">
         <v>1.473786175248547</v>
       </c>
       <c r="J315">
-        <v>1.418329441282336</v>
+        <v>1.432190698183436</v>
       </c>
       <c r="K315">
         <v>3269.144452380948</v>
@@ -13710,22 +13710,22 @@
         <v>1103.059499999694</v>
       </c>
       <c r="E316">
-        <v>786.5128063549924</v>
+        <v>949.5567881230218</v>
       </c>
       <c r="F316">
-        <v>316.546693644702</v>
+        <v>153.5027118766727</v>
       </c>
       <c r="G316">
-        <v>1041.544982118646</v>
+        <v>874.1500347247036</v>
       </c>
       <c r="H316">
-        <v>1.402468581677269</v>
+        <v>1.161657221344391</v>
       </c>
       <c r="I316">
         <v>1.445091805202321</v>
       </c>
       <c r="J316">
-        <v>1.347523544612386</v>
+        <v>1.397778113749093</v>
       </c>
       <c r="K316">
         <v>3244.361350000091</v>
